--- a/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.57322616867089</v>
+        <v>17.61813437158927</v>
       </c>
       <c r="C2">
-        <v>15.97377235910873</v>
+        <v>11.12685482009818</v>
       </c>
       <c r="D2">
-        <v>4.755329325726534</v>
+        <v>2.711515145605519</v>
       </c>
       <c r="E2">
-        <v>12.00935860332174</v>
+        <v>7.169784573929018</v>
       </c>
       <c r="F2">
-        <v>39.43589070031636</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>40.26813559820885</v>
       </c>
       <c r="I2">
-        <v>26.08463420720611</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.185964804017167</v>
       </c>
       <c r="K2">
-        <v>16.84599999267774</v>
+        <v>15.16080653100306</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.35433071899143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.97839903003345</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.00470074077361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.33822323212661</v>
+        <v>16.36493094097847</v>
       </c>
       <c r="C3">
-        <v>14.81683089963187</v>
+        <v>10.34494828126242</v>
       </c>
       <c r="D3">
-        <v>4.758879898461752</v>
+        <v>2.694718604567161</v>
       </c>
       <c r="E3">
-        <v>11.30524831901131</v>
+        <v>7.096660879278731</v>
       </c>
       <c r="F3">
-        <v>37.37559148913756</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>38.90503136136398</v>
       </c>
       <c r="I3">
-        <v>25.0805998770859</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.18767565645386</v>
       </c>
       <c r="K3">
-        <v>15.68585004669557</v>
+        <v>14.09737869428738</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.14241285831316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.41277193843618</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>29.08436110949483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.54161749242225</v>
+        <v>15.55576175378645</v>
       </c>
       <c r="C4">
-        <v>14.07226734211825</v>
+        <v>9.839780253946099</v>
       </c>
       <c r="D4">
-        <v>4.762954681010253</v>
+        <v>2.685386556960214</v>
       </c>
       <c r="E4">
-        <v>10.86488080763084</v>
+        <v>7.055249964864693</v>
       </c>
       <c r="F4">
-        <v>36.09280973808611</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>38.07873623352391</v>
       </c>
       <c r="I4">
-        <v>24.4676578252325</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.191286491409677</v>
       </c>
       <c r="K4">
-        <v>14.93854627456919</v>
+        <v>13.41009255399005</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.36302927118819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.06233328326093</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.53011788829368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.20719215954626</v>
+        <v>15.2159245792198</v>
       </c>
       <c r="C5">
-        <v>13.76006976526109</v>
+        <v>9.627522116848699</v>
       </c>
       <c r="D5">
-        <v>4.765052582530268</v>
+        <v>2.681833229586793</v>
       </c>
       <c r="E5">
-        <v>10.68350230218841</v>
+        <v>7.039239256255743</v>
       </c>
       <c r="F5">
-        <v>35.5659851211068</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>37.744930458448</v>
       </c>
       <c r="I5">
-        <v>24.21889727162349</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.193381057848813</v>
       </c>
       <c r="K5">
-        <v>14.62506958858494</v>
+        <v>13.12126354115127</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.03638282450522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.9189180903362</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.30709819967016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.15106434844754</v>
+        <v>15.15888219907707</v>
       </c>
       <c r="C6">
-        <v>13.707694087704</v>
+        <v>9.59188776192032</v>
       </c>
       <c r="D6">
-        <v>4.765426279293266</v>
+        <v>2.681258360772423</v>
       </c>
       <c r="E6">
-        <v>10.65327201860114</v>
+        <v>7.036632537915052</v>
       </c>
       <c r="F6">
-        <v>35.47827336950448</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>37.68968580482277</v>
       </c>
       <c r="I6">
-        <v>24.17765665710056</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.193765907091111</v>
       </c>
       <c r="K6">
-        <v>14.57247266172594</v>
+        <v>13.07277156731584</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.98159258130158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.89507318690383</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.27024085903498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.53714721874816</v>
+        <v>15.55121960025449</v>
       </c>
       <c r="C7">
-        <v>14.06809272661567</v>
+        <v>9.836943691559746</v>
       </c>
       <c r="D7">
-        <v>4.762981252117076</v>
+        <v>2.685337621221404</v>
       </c>
       <c r="E7">
-        <v>10.86244230590035</v>
+        <v>7.055030554859113</v>
       </c>
       <c r="F7">
-        <v>36.08572072505198</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>38.07422227261586</v>
       </c>
       <c r="I7">
-        <v>24.46429863645394</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.191312243109034</v>
       </c>
       <c r="K7">
-        <v>14.93435502343653</v>
+        <v>13.40623290548809</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.35866082950732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.06040134002244</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.52709851743169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.15524265145148</v>
+        <v>17.194197335746</v>
       </c>
       <c r="C8">
-        <v>15.58184219079668</v>
+        <v>10.86240002798156</v>
       </c>
       <c r="D8">
-        <v>4.756135684159555</v>
+        <v>2.705521726230787</v>
       </c>
       <c r="E8">
-        <v>11.76829346743075</v>
+        <v>7.143840390696117</v>
       </c>
       <c r="F8">
-        <v>38.7293747767108</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>39.79605801440081</v>
       </c>
       <c r="I8">
-        <v>25.73777436703242</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.186010527733219</v>
       </c>
       <c r="K8">
-        <v>16.45314159561724</v>
+        <v>14.80118907410396</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.9436691900957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.78412276305396</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>29.68517803313462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03267191658206</v>
+        <v>20.10686114805314</v>
       </c>
       <c r="C9">
-        <v>18.28798596718602</v>
+        <v>12.67884567323152</v>
       </c>
       <c r="D9">
-        <v>4.75970863545902</v>
+        <v>2.752776942047962</v>
       </c>
       <c r="E9">
-        <v>13.47916753421479</v>
+        <v>7.346224087349172</v>
       </c>
       <c r="F9">
-        <v>43.76258000133429</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>43.24868519605791</v>
       </c>
       <c r="I9">
-        <v>28.25969968136696</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.196917227440854</v>
       </c>
       <c r="K9">
-        <v>19.16172636325287</v>
+        <v>17.27000862516002</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.78095597225966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.17197173599335</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.03839594363924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.97928659286976</v>
+        <v>22.06736172698498</v>
       </c>
       <c r="C10">
-        <v>20.13023759347384</v>
+        <v>13.90157279392738</v>
       </c>
       <c r="D10">
-        <v>4.775788894980366</v>
+        <v>2.792060813663943</v>
       </c>
       <c r="E10">
-        <v>14.80174365199051</v>
+        <v>7.5129425082608</v>
       </c>
       <c r="F10">
-        <v>47.36469930244127</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>45.82418124233912</v>
       </c>
       <c r="I10">
-        <v>30.12692681349163</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.219383941002761</v>
       </c>
       <c r="K10">
-        <v>20.99941357161542</v>
+        <v>18.92990370420632</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.71437902522014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.48121189443322</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.81445622910986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83174787732832</v>
+        <v>22.92258488382187</v>
       </c>
       <c r="C11">
-        <v>20.94020749490497</v>
+        <v>14.43519673492996</v>
       </c>
       <c r="D11">
-        <v>4.786836265793676</v>
+        <v>2.810912508437421</v>
       </c>
       <c r="E11">
-        <v>15.42131954098854</v>
+        <v>7.592903070434256</v>
       </c>
       <c r="F11">
-        <v>48.98467714075836</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>47.00394040295977</v>
       </c>
       <c r="I11">
-        <v>30.98065467038777</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.233097130742108</v>
       </c>
       <c r="K11">
-        <v>21.80550238279671</v>
+        <v>19.6537096581229</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.56478175668137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.06911422415628</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.63281369744636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.150108639607</v>
+        <v>23.24138523223207</v>
       </c>
       <c r="C12">
-        <v>21.24322797063497</v>
+        <v>14.63416889578829</v>
       </c>
       <c r="D12">
-        <v>4.791635854090385</v>
+        <v>2.818192466135279</v>
       </c>
       <c r="E12">
-        <v>15.65370133736591</v>
+        <v>7.623793590053484</v>
       </c>
       <c r="F12">
-        <v>49.59580378495102</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>47.45192323237301</v>
       </c>
       <c r="I12">
-        <v>31.30475360226356</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.238824636604215</v>
       </c>
       <c r="K12">
-        <v>22.10675407658395</v>
+        <v>19.92349001966229</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.88297424230844</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.28823341958151</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>34.94427501239886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08173644515044</v>
+        <v>23.17294702827998</v>
       </c>
       <c r="C13">
-        <v>21.17812560841187</v>
+        <v>14.59145197239411</v>
       </c>
       <c r="D13">
-        <v>4.790573381411567</v>
+        <v>2.816618300971726</v>
       </c>
       <c r="E13">
-        <v>15.60374810045694</v>
+        <v>7.617113246985296</v>
       </c>
       <c r="F13">
-        <v>49.46428267523238</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>47.3553853687057</v>
       </c>
       <c r="I13">
-        <v>31.23491307405504</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.237566791525955</v>
       </c>
       <c r="K13">
-        <v>22.04204663949752</v>
+        <v>19.86557641129495</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.81461029180512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.24119557344093</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>34.8771248423547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.85802684678873</v>
+        <v>22.94891277454718</v>
       </c>
       <c r="C14">
-        <v>20.96520915777052</v>
+        <v>14.45162749776001</v>
       </c>
       <c r="D14">
-        <v>4.787218284928421</v>
+        <v>2.811508599536742</v>
       </c>
       <c r="E14">
-        <v>15.44048073039856</v>
+        <v>7.595432083761583</v>
       </c>
       <c r="F14">
-        <v>49.03499885343982</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>47.04077084473067</v>
       </c>
       <c r="I14">
-        <v>31.00730083571379</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.233557425716998</v>
       </c>
       <c r="K14">
-        <v>21.83036476563663</v>
+        <v>19.67598985672145</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.59103434250436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.08721065245868</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.6584058035517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72042881817756</v>
+        <v>22.81103381960168</v>
       </c>
       <c r="C15">
-        <v>20.83432105778256</v>
+        <v>14.36558203741032</v>
       </c>
       <c r="D15">
-        <v>4.785245992639578</v>
+        <v>2.808397175963184</v>
       </c>
       <c r="E15">
-        <v>15.34019282881892</v>
+        <v>7.582231952542083</v>
       </c>
       <c r="F15">
-        <v>48.77176081692057</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>46.84822427282606</v>
       </c>
       <c r="I15">
-        <v>30.867994476078</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.231172206698476</v>
       </c>
       <c r="K15">
-        <v>21.70019267000717</v>
+        <v>19.55930739678981</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.45359926356989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.99243850743632</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.52464116799243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.92293623149522</v>
+        <v>22.01075157929177</v>
       </c>
       <c r="C16">
-        <v>20.07676716450664</v>
+        <v>13.86625692483536</v>
       </c>
       <c r="D16">
-        <v>4.775148566896743</v>
+        <v>2.790848541398244</v>
       </c>
       <c r="E16">
-        <v>14.76092261370314</v>
+        <v>7.507801331139693</v>
       </c>
       <c r="F16">
-        <v>47.258481712066</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>45.74724861597734</v>
       </c>
       <c r="I16">
-        <v>30.07123484245229</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.218560737331455</v>
       </c>
       <c r="K16">
-        <v>20.9461571889337</v>
+        <v>18.88198748889399</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.65824609945629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.44229183872183</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.76118892404668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.42543794979051</v>
+        <v>21.51056875474736</v>
       </c>
       <c r="C17">
-        <v>19.60506848210277</v>
+        <v>13.55425068447966</v>
       </c>
       <c r="D17">
-        <v>4.769963158952351</v>
+        <v>2.780334086516069</v>
       </c>
       <c r="E17">
-        <v>14.40124296952759</v>
+        <v>7.463208115653922</v>
       </c>
       <c r="F17">
-        <v>46.32556352846235</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>45.07394164548948</v>
       </c>
       <c r="I17">
-        <v>29.58366276258706</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.211740751634917</v>
       </c>
       <c r="K17">
-        <v>20.47612797593315</v>
+        <v>18.45858924600148</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.16309862118242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.09838298706354</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.29553599492476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.13615748520321</v>
+        <v>21.21941613410543</v>
       </c>
       <c r="C18">
-        <v>19.33109402965272</v>
+        <v>13.37265579874965</v>
       </c>
       <c r="D18">
-        <v>4.767326585554661</v>
+        <v>2.774378742521578</v>
       </c>
       <c r="E18">
-        <v>14.19268633067781</v>
+        <v>7.437945745267836</v>
       </c>
       <c r="F18">
-        <v>45.78718801356607</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>44.68743219244486</v>
       </c>
       <c r="I18">
-        <v>29.3036142367031</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.208144755274605</v>
       </c>
       <c r="K18">
-        <v>20.20294649487089</v>
+        <v>18.21210431904743</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.87553816530437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.89817186905982</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.02867811676948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.03766535485115</v>
+        <v>21.12023641417107</v>
       </c>
       <c r="C19">
-        <v>19.23786349421089</v>
+        <v>13.31079950349513</v>
       </c>
       <c r="D19">
-        <v>4.766491060540172</v>
+        <v>2.772378231104023</v>
       </c>
       <c r="E19">
-        <v>14.12177608982826</v>
+        <v>7.429458192402626</v>
       </c>
       <c r="F19">
-        <v>45.60458829872852</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>44.55669655078703</v>
       </c>
       <c r="I19">
-        <v>29.20885720317419</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.206982381527091</v>
       </c>
       <c r="K19">
-        <v>20.10995684955917</v>
+        <v>18.12813532629118</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.77769038764192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.82996661044102</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.9384905970723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.47871960962848</v>
+        <v>21.56417078039002</v>
       </c>
       <c r="C20">
-        <v>19.65555519842047</v>
+        <v>13.58768442879654</v>
       </c>
       <c r="D20">
-        <v>4.770478811442498</v>
+        <v>2.781443819011128</v>
       </c>
       <c r="E20">
-        <v>14.43970319585196</v>
+        <v>7.467915015141926</v>
       </c>
       <c r="F20">
-        <v>46.42505698305762</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>45.14553759790918</v>
       </c>
       <c r="I20">
-        <v>29.63552417217666</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.212432715731745</v>
       </c>
       <c r="K20">
-        <v>20.52645455717676</v>
+        <v>18.50396548088743</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.2160916680269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.13524041570869</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.34500448143134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92385384294093</v>
+        <v>23.01485242676348</v>
       </c>
       <c r="C21">
-        <v>21.02784528285828</v>
+        <v>14.49278018122572</v>
       </c>
       <c r="D21">
-        <v>4.788186343911302</v>
+        <v>2.813005602879273</v>
       </c>
       <c r="E21">
-        <v>15.48849447353818</v>
+        <v>7.601783613620211</v>
       </c>
       <c r="F21">
-        <v>49.16114934274736</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>47.13314636908248</v>
       </c>
       <c r="I21">
-        <v>31.07413211476718</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.234720291753359</v>
       </c>
       <c r="K21">
-        <v>21.89264672307416</v>
+        <v>19.73179136395043</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.65680509126083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.13253364802535</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.72260552555279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.84258082558453</v>
+        <v>23.93361367982919</v>
       </c>
       <c r="C22">
-        <v>21.90335809055226</v>
+        <v>15.06632728734193</v>
       </c>
       <c r="D22">
-        <v>4.803396513535636</v>
+        <v>2.834457213887208</v>
       </c>
       <c r="E22">
-        <v>16.16106671431084</v>
+        <v>7.692848184528494</v>
       </c>
       <c r="F22">
-        <v>50.93608219120327</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>48.43944476208743</v>
       </c>
       <c r="I22">
-        <v>32.01922455171051</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.252419920651955</v>
       </c>
       <c r="K22">
-        <v>22.76240858019033</v>
+        <v>20.50923180018829</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.57623365046307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.76396448040984</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>35.63215583157864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.35448276782747</v>
+        <v>23.44586206123204</v>
       </c>
       <c r="C23">
-        <v>21.43790938305095</v>
+        <v>14.76180607931101</v>
       </c>
       <c r="D23">
-        <v>4.794916356426599</v>
+        <v>2.822932310915051</v>
       </c>
       <c r="E23">
-        <v>15.80317007374107</v>
+        <v>7.643911220084405</v>
       </c>
       <c r="F23">
-        <v>49.98982009810922</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>47.74153986390161</v>
       </c>
       <c r="I23">
-        <v>31.51427826958689</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.242675103494406</v>
       </c>
       <c r="K23">
-        <v>22.30020526105397</v>
+        <v>20.09651803693557</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.08741528622112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.42876676010995</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.14583124232571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.45464115445142</v>
+        <v>21.53994850498319</v>
       </c>
       <c r="C24">
-        <v>19.63273886485993</v>
+        <v>13.5725759537798</v>
       </c>
       <c r="D24">
-        <v>4.770244617510844</v>
+        <v>2.780941829992036</v>
       </c>
       <c r="E24">
-        <v>14.4223208686084</v>
+        <v>7.465785859642092</v>
       </c>
       <c r="F24">
-        <v>46.38008233524046</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>45.1131672532491</v>
       </c>
       <c r="I24">
-        <v>29.61207682241757</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.212118869167195</v>
       </c>
       <c r="K24">
-        <v>20.50371113740733</v>
+        <v>18.48346045420834</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.19214255017438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.1185849496016</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.32263712873207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.28465952591132</v>
+        <v>19.35113491630139</v>
       </c>
       <c r="C25">
-        <v>17.58263355910178</v>
+        <v>12.20760554514179</v>
       </c>
       <c r="D25">
-        <v>4.756626249668735</v>
+        <v>2.739185086955005</v>
       </c>
       <c r="E25">
-        <v>13.0233797854855</v>
+        <v>7.2883702340644</v>
       </c>
       <c r="F25">
-        <v>42.41801511024427</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>42.30749284712851</v>
       </c>
       <c r="I25">
-        <v>27.57509105002317</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.191540875598868</v>
       </c>
       <c r="K25">
-        <v>18.45669494756571</v>
+        <v>16.62982689792886</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.04105236952222</v>
+        <v>13.80065488683231</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.39341172532369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.61813437158927</v>
+        <v>21.1637116135576</v>
       </c>
       <c r="C2">
-        <v>11.12685482009818</v>
+        <v>12.88864764536905</v>
       </c>
       <c r="D2">
-        <v>2.711515145605519</v>
+        <v>4.905920462794353</v>
       </c>
       <c r="E2">
-        <v>7.169784573929018</v>
+        <v>7.398419421999093</v>
       </c>
       <c r="F2">
-        <v>40.26813559820885</v>
+        <v>22.04586551603738</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.05257367733752</v>
       </c>
       <c r="J2">
-        <v>6.185964804017167</v>
+        <v>5.989628945707953</v>
       </c>
       <c r="K2">
-        <v>15.16080653100306</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.98915600791049</v>
       </c>
       <c r="M2">
-        <v>12.97839903003345</v>
+        <v>12.98734245781322</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.00470074077361</v>
+        <v>16.45458305804322</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.36493094097847</v>
+        <v>19.74387155810688</v>
       </c>
       <c r="C3">
-        <v>10.34494828126242</v>
+        <v>12.22810450472847</v>
       </c>
       <c r="D3">
-        <v>2.694718604567161</v>
+        <v>4.848798421427407</v>
       </c>
       <c r="E3">
-        <v>7.096660879278731</v>
+        <v>7.481268995532132</v>
       </c>
       <c r="F3">
-        <v>38.90503136136398</v>
+        <v>22.01036367549449</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.37917215267493</v>
       </c>
       <c r="J3">
-        <v>6.18767565645386</v>
+        <v>6.040282113707596</v>
       </c>
       <c r="K3">
-        <v>14.09737869428738</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.869054999403057</v>
       </c>
       <c r="M3">
-        <v>12.41277193843618</v>
+        <v>12.3671976190286</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.08436110949483</v>
+        <v>16.52191836370577</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.55576175378645</v>
+        <v>18.81978002789726</v>
       </c>
       <c r="C4">
-        <v>9.839780253946099</v>
+        <v>11.80393727932786</v>
       </c>
       <c r="D4">
-        <v>2.685386556960214</v>
+        <v>4.814728070167015</v>
       </c>
       <c r="E4">
-        <v>7.055249964864693</v>
+        <v>7.534045671653939</v>
       </c>
       <c r="F4">
-        <v>38.07873623352391</v>
+        <v>22.01174183993085</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.59190788492773</v>
       </c>
       <c r="J4">
-        <v>6.191286491409677</v>
+        <v>6.072375096537474</v>
       </c>
       <c r="K4">
-        <v>13.41009255399005</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.796400449266953</v>
       </c>
       <c r="M4">
-        <v>12.06233328326093</v>
+        <v>11.97292577737005</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.53011788829368</v>
+        <v>16.5805377595452</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2159245792198</v>
+        <v>18.42997665841163</v>
       </c>
       <c r="C5">
-        <v>9.627522116848699</v>
+        <v>11.62652145500704</v>
       </c>
       <c r="D5">
-        <v>2.681833229586793</v>
+        <v>4.801104216499165</v>
       </c>
       <c r="E5">
-        <v>7.039239256255743</v>
+        <v>7.556036160881143</v>
       </c>
       <c r="F5">
-        <v>37.744930458448</v>
+        <v>22.01791225950964</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.68155788303759</v>
       </c>
       <c r="J5">
-        <v>6.193381057848813</v>
+        <v>6.085706779628777</v>
       </c>
       <c r="K5">
-        <v>13.12126354115127</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.767093245489645</v>
       </c>
       <c r="M5">
-        <v>11.9189180903362</v>
+        <v>11.8090408840965</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.30709819967016</v>
+        <v>16.60857535659853</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.15888219907707</v>
+        <v>18.36444891872844</v>
       </c>
       <c r="C6">
-        <v>9.59188776192032</v>
+        <v>11.59678974035291</v>
       </c>
       <c r="D6">
-        <v>2.681258360772423</v>
+        <v>4.798857919851917</v>
       </c>
       <c r="E6">
-        <v>7.036632537915052</v>
+        <v>7.559716990230517</v>
       </c>
       <c r="F6">
-        <v>37.68968580482277</v>
+        <v>22.01926908724337</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.6966199053275</v>
       </c>
       <c r="J6">
-        <v>6.193765907091111</v>
+        <v>6.087935927058928</v>
       </c>
       <c r="K6">
-        <v>13.07277156731584</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.762245706502698</v>
       </c>
       <c r="M6">
-        <v>11.89507318690383</v>
+        <v>11.78163951114066</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.27024085903498</v>
+        <v>16.6134759823228</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.55121960025449</v>
+        <v>18.81457666600636</v>
       </c>
       <c r="C7">
-        <v>9.836943691559746</v>
+        <v>11.80156290383951</v>
       </c>
       <c r="D7">
-        <v>2.685337621221404</v>
+        <v>4.814543270780738</v>
       </c>
       <c r="E7">
-        <v>7.055030554859113</v>
+        <v>7.534340279728892</v>
       </c>
       <c r="F7">
-        <v>38.07422227261586</v>
+        <v>22.01180264049295</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.59310509352632</v>
       </c>
       <c r="J7">
-        <v>6.191312243109034</v>
+        <v>6.072553860332994</v>
       </c>
       <c r="K7">
-        <v>13.40623290548809</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.796003951899483</v>
       </c>
       <c r="M7">
-        <v>12.06040134002244</v>
+        <v>11.97072833100282</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.52709851743169</v>
+        <v>16.58089933708109</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.194197335746</v>
+        <v>20.68496014727597</v>
       </c>
       <c r="C8">
-        <v>10.86240002798156</v>
+        <v>12.66480998350995</v>
       </c>
       <c r="D8">
-        <v>2.705521726230787</v>
+        <v>4.886021486426842</v>
       </c>
       <c r="E8">
-        <v>7.143840390696117</v>
+        <v>7.426592718161934</v>
       </c>
       <c r="F8">
-        <v>39.79605801440081</v>
+        <v>22.028684515373</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.16258176864752</v>
       </c>
       <c r="J8">
-        <v>6.186010527733219</v>
+        <v>6.006890872544205</v>
       </c>
       <c r="K8">
-        <v>14.80118907410396</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.947535281311093</v>
       </c>
       <c r="M8">
-        <v>12.78412276305396</v>
+        <v>12.77641670137955</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.68517803313462</v>
+        <v>16.4740972190027</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.10686114805314</v>
+        <v>23.94126501229417</v>
       </c>
       <c r="C9">
-        <v>12.67884567323152</v>
+        <v>14.20642093782041</v>
       </c>
       <c r="D9">
-        <v>2.752776942047962</v>
+        <v>5.033791162778743</v>
       </c>
       <c r="E9">
-        <v>7.346224087349172</v>
+        <v>7.230237981455158</v>
       </c>
       <c r="F9">
-        <v>43.24868519605791</v>
+        <v>22.2550782539761</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.42083786610817</v>
       </c>
       <c r="J9">
-        <v>6.196917227440854</v>
+        <v>5.885798398522456</v>
       </c>
       <c r="K9">
-        <v>17.27000862516002</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.252168864476635</v>
       </c>
       <c r="M9">
-        <v>14.17197173599335</v>
+        <v>14.24284760301452</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.03839594363924</v>
+        <v>16.41050328128864</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.06736172698498</v>
+        <v>26.08773634395322</v>
       </c>
       <c r="C10">
-        <v>13.90157279392738</v>
+        <v>15.24329072527404</v>
       </c>
       <c r="D10">
-        <v>2.792060813663943</v>
+        <v>5.146515779281264</v>
       </c>
       <c r="E10">
-        <v>7.5129425082608</v>
+        <v>7.094810885376596</v>
       </c>
       <c r="F10">
-        <v>45.82418124233912</v>
+        <v>22.55139042682822</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.9475195443361</v>
       </c>
       <c r="J10">
-        <v>6.219383941002761</v>
+        <v>5.801222299245893</v>
       </c>
       <c r="K10">
-        <v>18.92990370420632</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.479053683573896</v>
       </c>
       <c r="M10">
-        <v>15.48121189443322</v>
+        <v>15.24426570837458</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.81445622910986</v>
+        <v>16.46472147518923</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.92258488382187</v>
+        <v>27.01191220751927</v>
       </c>
       <c r="C11">
-        <v>14.43519673492996</v>
+        <v>15.6937743491418</v>
       </c>
       <c r="D11">
-        <v>2.810912508437421</v>
+        <v>5.198601201300581</v>
       </c>
       <c r="E11">
-        <v>7.592903070434256</v>
+        <v>7.035060410931698</v>
       </c>
       <c r="F11">
-        <v>47.00394040295977</v>
+        <v>22.7167862080882</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.7501851872642</v>
       </c>
       <c r="J11">
-        <v>6.233097130742108</v>
+        <v>5.763633694962412</v>
       </c>
       <c r="K11">
-        <v>19.6537096581229</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.582641743436946</v>
       </c>
       <c r="M11">
-        <v>16.06911422415628</v>
+        <v>15.68235872367227</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.63281369744636</v>
+        <v>16.51386159918336</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.24138523223207</v>
+        <v>27.35444845643306</v>
       </c>
       <c r="C12">
-        <v>14.63416889578829</v>
+        <v>15.86129440048971</v>
       </c>
       <c r="D12">
-        <v>2.818192466135279</v>
+        <v>5.218432518263262</v>
       </c>
       <c r="E12">
-        <v>7.623793590053484</v>
+        <v>7.012696611255316</v>
       </c>
       <c r="F12">
-        <v>47.45192323237301</v>
+        <v>22.78399502166692</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.6782843571197</v>
       </c>
       <c r="J12">
-        <v>6.238824636604215</v>
+        <v>5.749521556521471</v>
       </c>
       <c r="K12">
-        <v>19.92349001966229</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.621899290994441</v>
       </c>
       <c r="M12">
-        <v>16.28823341958151</v>
+        <v>15.84568508721506</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.94427501239886</v>
+        <v>16.53619526938749</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.17294702827998</v>
+        <v>27.28100615292656</v>
       </c>
       <c r="C13">
-        <v>14.59145197239411</v>
+        <v>15.82535263499614</v>
       </c>
       <c r="D13">
-        <v>2.816618300971726</v>
+        <v>5.214156825936976</v>
       </c>
       <c r="E13">
-        <v>7.617113246985296</v>
+        <v>7.017501456649454</v>
       </c>
       <c r="F13">
-        <v>47.3553853687057</v>
+        <v>22.76931415943475</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.69363967299526</v>
       </c>
       <c r="J13">
-        <v>6.237566791525955</v>
+        <v>5.752555529011566</v>
       </c>
       <c r="K13">
-        <v>19.86557641129495</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.613443446974472</v>
       </c>
       <c r="M13">
-        <v>16.24119557344093</v>
+        <v>15.81062491211815</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.8771248423547</v>
+        <v>16.53121639837809</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.94891277454718</v>
+        <v>27.04024125658335</v>
       </c>
       <c r="C14">
-        <v>14.45162749776001</v>
+        <v>15.7076178969242</v>
       </c>
       <c r="D14">
-        <v>2.811508599536742</v>
+        <v>5.200230622913534</v>
       </c>
       <c r="E14">
-        <v>7.595432083761583</v>
+        <v>7.033215294392253</v>
       </c>
       <c r="F14">
-        <v>47.04077084473067</v>
+        <v>22.72222282075921</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.74421175227399</v>
       </c>
       <c r="J14">
-        <v>6.233557425716998</v>
+        <v>5.762470271178021</v>
       </c>
       <c r="K14">
-        <v>19.67598985672145</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.58587099066963</v>
       </c>
       <c r="M14">
-        <v>16.08721065245868</v>
+        <v>15.69584747236621</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.6584058035517</v>
+        <v>16.51562317885156</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.81103381960168</v>
+        <v>26.8918009280969</v>
       </c>
       <c r="C15">
-        <v>14.36558203741032</v>
+        <v>15.63510196271322</v>
       </c>
       <c r="D15">
-        <v>2.808397175963184</v>
+        <v>5.191714209562061</v>
       </c>
       <c r="E15">
-        <v>7.582231952542083</v>
+        <v>7.042874513544188</v>
       </c>
       <c r="F15">
-        <v>46.84822427282606</v>
+        <v>22.69397910433315</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.77556421239448</v>
       </c>
       <c r="J15">
-        <v>6.231172206698476</v>
+        <v>5.768559038080936</v>
       </c>
       <c r="K15">
-        <v>19.55930739678981</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.568985444179148</v>
       </c>
       <c r="M15">
-        <v>15.99243850743632</v>
+        <v>15.62520679667043</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.52464116799243</v>
+        <v>16.50656306705334</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.01075157929177</v>
+        <v>26.02629491746247</v>
       </c>
       <c r="C16">
-        <v>13.86625692483536</v>
+        <v>15.21342205953316</v>
       </c>
       <c r="D16">
-        <v>2.790848541398244</v>
+        <v>5.143127385099174</v>
       </c>
       <c r="E16">
-        <v>7.507801331139693</v>
+        <v>7.098752684361564</v>
       </c>
       <c r="F16">
-        <v>45.74724861597734</v>
+        <v>22.54121258580689</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.96079742383386</v>
       </c>
       <c r="J16">
-        <v>6.218560737331455</v>
+        <v>5.803696158905918</v>
       </c>
       <c r="K16">
-        <v>18.88198748889399</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.472289520930296</v>
       </c>
       <c r="M16">
-        <v>15.44229183872183</v>
+        <v>15.21527854730926</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.76118892404668</v>
+        <v>16.46202025639036</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.51056875474736</v>
+        <v>25.48200955830972</v>
       </c>
       <c r="C17">
-        <v>13.55425068447966</v>
+        <v>14.94928848266263</v>
       </c>
       <c r="D17">
-        <v>2.780334086516069</v>
+        <v>5.113521470146014</v>
       </c>
       <c r="E17">
-        <v>7.463208115653922</v>
+        <v>7.133504318207497</v>
       </c>
       <c r="F17">
-        <v>45.07394164548948</v>
+        <v>22.45546270811063</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.07919827941964</v>
       </c>
       <c r="J17">
-        <v>6.211740751634917</v>
+        <v>5.825474625099615</v>
       </c>
       <c r="K17">
-        <v>18.45858924600148</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.413049185152583</v>
       </c>
       <c r="M17">
-        <v>15.09838298706354</v>
+        <v>14.95928198560771</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.29553599492476</v>
+        <v>16.44111125568666</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.21941613410543</v>
+        <v>25.16402629852984</v>
       </c>
       <c r="C18">
-        <v>13.37265579874965</v>
+        <v>14.79537144411128</v>
       </c>
       <c r="D18">
-        <v>2.774378742521578</v>
+        <v>5.096569307396074</v>
       </c>
       <c r="E18">
-        <v>7.437945745267836</v>
+        <v>7.153667503877885</v>
       </c>
       <c r="F18">
-        <v>44.68743219244486</v>
+        <v>22.40901227834838</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.14897558464986</v>
       </c>
       <c r="J18">
-        <v>6.208144755274605</v>
+        <v>5.838084713241794</v>
       </c>
       <c r="K18">
-        <v>18.21210431904743</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.379012481954822</v>
       </c>
       <c r="M18">
-        <v>14.89817186905982</v>
+        <v>14.81039884653148</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.02867811676948</v>
+        <v>16.43137666144382</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.12023641417107</v>
+        <v>25.055514209516</v>
       </c>
       <c r="C19">
-        <v>13.31079950349513</v>
+        <v>14.74291606051919</v>
       </c>
       <c r="D19">
-        <v>2.772378231104023</v>
+        <v>5.090842973111124</v>
       </c>
       <c r="E19">
-        <v>7.429458192402626</v>
+        <v>7.160524598498143</v>
       </c>
       <c r="F19">
-        <v>44.55669655078703</v>
+        <v>22.39377241124476</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.17288207204383</v>
       </c>
       <c r="J19">
-        <v>6.206982381527091</v>
+        <v>5.842368808868822</v>
       </c>
       <c r="K19">
-        <v>18.12813532629118</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.36749529125988</v>
       </c>
       <c r="M19">
-        <v>14.82996661044102</v>
+        <v>14.75970987003748</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.9384905970723</v>
+        <v>16.42846796162439</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.56417078039002</v>
+        <v>25.54045873448167</v>
       </c>
       <c r="C20">
-        <v>13.58768442879654</v>
+        <v>14.97761255078683</v>
       </c>
       <c r="D20">
-        <v>2.781443819011128</v>
+        <v>5.116665226972706</v>
       </c>
       <c r="E20">
-        <v>7.467915015141926</v>
+        <v>7.129786871606888</v>
       </c>
       <c r="F20">
-        <v>45.14553759790918</v>
+        <v>22.4642925111124</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.06641917989409</v>
       </c>
       <c r="J20">
-        <v>6.212432715731745</v>
+        <v>5.82314764738676</v>
       </c>
       <c r="K20">
-        <v>18.50396548088743</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.419351788312113</v>
       </c>
       <c r="M20">
-        <v>15.13524041570869</v>
+        <v>14.98670354500857</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.34500448143134</v>
+        <v>16.44309836732297</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.01485242676348</v>
+        <v>27.11116066445466</v>
       </c>
       <c r="C21">
-        <v>14.49278018122572</v>
+        <v>15.74228282600398</v>
       </c>
       <c r="D21">
-        <v>2.813005602879273</v>
+        <v>5.20431822694851</v>
       </c>
       <c r="E21">
-        <v>7.601783613620211</v>
+        <v>7.028592673513923</v>
       </c>
       <c r="F21">
-        <v>47.13314636908248</v>
+        <v>22.7359291247604</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.72927875938402</v>
       </c>
       <c r="J21">
-        <v>6.234720291753359</v>
+        <v>5.759554809168975</v>
       </c>
       <c r="K21">
-        <v>19.73179136395043</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.593969024041177</v>
       </c>
       <c r="M21">
-        <v>16.13253364802535</v>
+        <v>15.72963053248027</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.72260552555279</v>
+        <v>16.52010056206792</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.93361367982919</v>
+        <v>28.09444472245067</v>
       </c>
       <c r="C22">
-        <v>15.06632728734193</v>
+        <v>16.22415260444532</v>
       </c>
       <c r="D22">
-        <v>2.834457213887208</v>
+        <v>5.262228807616609</v>
       </c>
       <c r="E22">
-        <v>7.692848184528494</v>
+        <v>6.963983833662385</v>
       </c>
       <c r="F22">
-        <v>48.43944476208743</v>
+        <v>22.94021083161258</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.52554082705467</v>
       </c>
       <c r="J22">
-        <v>6.252419920651955</v>
+        <v>5.718700700474648</v>
       </c>
       <c r="K22">
-        <v>20.50923180018829</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.708262751341444</v>
       </c>
       <c r="M22">
-        <v>16.76396448040984</v>
+        <v>16.20017986976925</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.63215583157864</v>
+        <v>16.59223234270819</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.44586206123204</v>
+        <v>27.57357660319481</v>
       </c>
       <c r="C23">
-        <v>14.76180607931101</v>
+        <v>15.96861023679142</v>
       </c>
       <c r="D23">
-        <v>2.822932310915051</v>
+        <v>5.231266320675039</v>
       </c>
       <c r="E23">
-        <v>7.643911220084405</v>
+        <v>6.998328516098801</v>
       </c>
       <c r="F23">
-        <v>47.74153986390161</v>
+        <v>22.82867898416384</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.63267293110024</v>
       </c>
       <c r="J23">
-        <v>6.242675103494406</v>
+        <v>5.740442457404844</v>
       </c>
       <c r="K23">
-        <v>20.09651803693557</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.647253546484468</v>
       </c>
       <c r="M23">
-        <v>16.42876676010995</v>
+        <v>15.95042665260299</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.14583124232571</v>
+        <v>16.5516721887431</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.53994850498319</v>
+        <v>25.51404964902081</v>
       </c>
       <c r="C24">
-        <v>13.5725759537798</v>
+        <v>14.96481366407268</v>
       </c>
       <c r="D24">
-        <v>2.780941829992036</v>
+        <v>5.115243719979354</v>
       </c>
       <c r="E24">
-        <v>7.465785859642092</v>
+        <v>7.131466955730964</v>
       </c>
       <c r="F24">
-        <v>45.1131672532491</v>
+        <v>22.46029169882452</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.07219131137613</v>
       </c>
       <c r="J24">
-        <v>6.212118869167195</v>
+        <v>5.824199395269904</v>
       </c>
       <c r="K24">
-        <v>18.48346045420834</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.416502313123319</v>
       </c>
       <c r="M24">
-        <v>15.1185849496016</v>
+        <v>14.97431157118102</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.32263712873207</v>
+        <v>16.44219288858374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.35113491630139</v>
+        <v>23.10389979740906</v>
       </c>
       <c r="C25">
-        <v>12.20760554514179</v>
+        <v>13.80599751795133</v>
       </c>
       <c r="D25">
-        <v>2.739185086955005</v>
+        <v>4.993050902405076</v>
       </c>
       <c r="E25">
-        <v>7.2883702340644</v>
+        <v>7.281785816655916</v>
       </c>
       <c r="F25">
-        <v>42.30749284712851</v>
+        <v>22.17184621203888</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.60965831736786</v>
       </c>
       <c r="J25">
-        <v>6.191540875598868</v>
+        <v>5.91776460649136</v>
       </c>
       <c r="K25">
-        <v>16.62982689792886</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.169113629962172</v>
       </c>
       <c r="M25">
-        <v>13.80065488683231</v>
+        <v>13.85908032545629</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.39341172532369</v>
+        <v>16.41085092275279</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.1637116135576</v>
+        <v>16.97360316259546</v>
       </c>
       <c r="C2">
-        <v>12.88864764536905</v>
+        <v>8.927199038821946</v>
       </c>
       <c r="D2">
-        <v>4.905920462794353</v>
+        <v>8.179484323685445</v>
       </c>
       <c r="E2">
-        <v>7.398419421999093</v>
+        <v>12.71991215803201</v>
       </c>
       <c r="F2">
-        <v>22.04586551603738</v>
+        <v>34.81600840799248</v>
       </c>
       <c r="I2">
-        <v>15.05257367733752</v>
+        <v>25.90020916364046</v>
       </c>
       <c r="J2">
-        <v>5.989628945707953</v>
+        <v>9.934216296803422</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.98915600791049</v>
+        <v>11.31073906751209</v>
       </c>
       <c r="M2">
-        <v>12.98734245781322</v>
+        <v>16.43699828793629</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.45458305804322</v>
+        <v>26.75469176677674</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74387155810688</v>
+        <v>16.47134532421442</v>
       </c>
       <c r="C3">
-        <v>12.22810450472847</v>
+        <v>8.610807771909453</v>
       </c>
       <c r="D3">
-        <v>4.848798421427407</v>
+        <v>8.181699412178238</v>
       </c>
       <c r="E3">
-        <v>7.481268995532132</v>
+        <v>12.75325384499578</v>
       </c>
       <c r="F3">
-        <v>22.01036367549449</v>
+        <v>34.94969786146713</v>
       </c>
       <c r="I3">
-        <v>15.37917215267493</v>
+        <v>26.04598948743855</v>
       </c>
       <c r="J3">
-        <v>6.040282113707596</v>
+        <v>9.952701352754108</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.869054999403057</v>
+        <v>11.30793128581077</v>
       </c>
       <c r="M3">
-        <v>12.3671976190286</v>
+        <v>16.31609476631339</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.52191836370577</v>
+        <v>26.87018873949422</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.81978002789726</v>
+        <v>16.15609732352316</v>
       </c>
       <c r="C4">
-        <v>11.80393727932786</v>
+        <v>8.409388972004225</v>
       </c>
       <c r="D4">
-        <v>4.814728070167015</v>
+        <v>8.183768361102507</v>
       </c>
       <c r="E4">
-        <v>7.534045671653939</v>
+        <v>12.77484751703677</v>
       </c>
       <c r="F4">
-        <v>22.01174183993085</v>
+        <v>35.04026403197751</v>
       </c>
       <c r="I4">
-        <v>15.59190788492773</v>
+        <v>26.14085487560599</v>
       </c>
       <c r="J4">
-        <v>6.072375096537474</v>
+        <v>9.964656550594725</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.796400449266953</v>
+        <v>11.30733878506446</v>
       </c>
       <c r="M4">
-        <v>11.97292577737005</v>
+        <v>16.24291824750643</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.5805377595452</v>
+        <v>26.94731461301953</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42997665841163</v>
+        <v>16.02608497996088</v>
       </c>
       <c r="C5">
-        <v>11.62652145500704</v>
+        <v>8.325597113346564</v>
       </c>
       <c r="D5">
-        <v>4.801104216499165</v>
+        <v>8.184790320582309</v>
       </c>
       <c r="E5">
-        <v>7.556036160881143</v>
+        <v>12.78392994963343</v>
       </c>
       <c r="F5">
-        <v>22.01791225950964</v>
+        <v>35.07929759272006</v>
       </c>
       <c r="I5">
-        <v>15.68155788303759</v>
+        <v>26.18086078127853</v>
       </c>
       <c r="J5">
-        <v>6.085706779628777</v>
+        <v>9.969681047318959</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.767093245489645</v>
+        <v>11.30738307239289</v>
       </c>
       <c r="M5">
-        <v>11.8090408840965</v>
+        <v>16.21338629803021</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.60857535659853</v>
+        <v>26.98030246486622</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36444891872844</v>
+        <v>16.00440862042997</v>
       </c>
       <c r="C6">
-        <v>11.59678974035291</v>
+        <v>8.311582857480191</v>
       </c>
       <c r="D6">
-        <v>4.798857919851917</v>
+        <v>8.184970834923874</v>
       </c>
       <c r="E6">
-        <v>7.559716990230517</v>
+        <v>12.78545518576075</v>
       </c>
       <c r="F6">
-        <v>22.01926908724337</v>
+        <v>35.08590739916288</v>
       </c>
       <c r="I6">
-        <v>15.6966199053275</v>
+        <v>26.1875851400909</v>
       </c>
       <c r="J6">
-        <v>6.087935927058928</v>
+        <v>9.9705245944791</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.762245706502698</v>
+        <v>11.30740771814485</v>
       </c>
       <c r="M6">
-        <v>11.78163951114066</v>
+        <v>16.20850056857322</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.6134759823228</v>
+        <v>26.98587410431335</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81457666600636</v>
+        <v>16.15434994644212</v>
       </c>
       <c r="C7">
-        <v>11.80156290383951</v>
+        <v>8.408265736152718</v>
       </c>
       <c r="D7">
-        <v>4.814543270780738</v>
+        <v>8.183781418689755</v>
       </c>
       <c r="E7">
-        <v>7.534340279728892</v>
+        <v>12.77496885968653</v>
       </c>
       <c r="F7">
-        <v>22.01180264049295</v>
+        <v>35.04078184681644</v>
       </c>
       <c r="I7">
-        <v>15.59310509352632</v>
+        <v>26.14138895226667</v>
       </c>
       <c r="J7">
-        <v>6.072553860332994</v>
+        <v>9.964723694017948</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.796003951899483</v>
+        <v>11.30733822384992</v>
       </c>
       <c r="M7">
-        <v>11.97072833100282</v>
+        <v>16.24251877439439</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.58089933708109</v>
+        <v>26.94775319294516</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68496014727597</v>
+        <v>16.80195149638622</v>
       </c>
       <c r="C8">
-        <v>12.66480998350995</v>
+        <v>8.819641057639828</v>
       </c>
       <c r="D8">
-        <v>4.886021486426842</v>
+        <v>8.180101320800274</v>
       </c>
       <c r="E8">
-        <v>7.426592718161934</v>
+        <v>12.73117601561061</v>
       </c>
       <c r="F8">
-        <v>22.028684515373</v>
+        <v>34.86034128753442</v>
       </c>
       <c r="I8">
-        <v>15.16258176864752</v>
+        <v>25.94936309808237</v>
       </c>
       <c r="J8">
-        <v>6.006890872544205</v>
+        <v>9.940464585190103</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.947535281311093</v>
+        <v>11.30953685048104</v>
       </c>
       <c r="M8">
-        <v>12.77641670137955</v>
+        <v>16.39510425348541</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.4740972190027</v>
+        <v>26.79322427583549</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.94126501229417</v>
+        <v>18.01029439511294</v>
       </c>
       <c r="C9">
-        <v>14.20642093782041</v>
+        <v>9.566254641836162</v>
       </c>
       <c r="D9">
-        <v>5.033791162778743</v>
+        <v>8.178482941893748</v>
       </c>
       <c r="E9">
-        <v>7.230237981455158</v>
+        <v>12.65416392544987</v>
       </c>
       <c r="F9">
-        <v>22.2550782539761</v>
+        <v>34.57401742846884</v>
       </c>
       <c r="I9">
-        <v>14.42083786610817</v>
+        <v>25.61526115507191</v>
       </c>
       <c r="J9">
-        <v>5.885798398522456</v>
+        <v>9.897674795464081</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.252168864476635</v>
+        <v>11.32277126833785</v>
       </c>
       <c r="M9">
-        <v>14.24284760301452</v>
+        <v>16.7017474894972</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.41050328128864</v>
+        <v>26.53961049476534</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08773634395322</v>
+        <v>18.85185638328617</v>
       </c>
       <c r="C10">
-        <v>15.24329072527404</v>
+        <v>10.07430846079906</v>
       </c>
       <c r="D10">
-        <v>5.146515779281264</v>
+        <v>8.180671025018032</v>
       </c>
       <c r="E10">
-        <v>7.094810885376596</v>
+        <v>12.60293877286677</v>
       </c>
       <c r="F10">
-        <v>22.55139042682822</v>
+        <v>34.40512485986806</v>
       </c>
       <c r="I10">
-        <v>13.9475195443361</v>
+        <v>25.39563289959245</v>
       </c>
       <c r="J10">
-        <v>5.801222299245893</v>
+        <v>9.869123757873982</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.479053683573896</v>
+        <v>11.33785814413255</v>
       </c>
       <c r="M10">
-        <v>15.24426570837458</v>
+        <v>16.93023627193102</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.46472147518923</v>
+        <v>26.38359764035937</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.01191220751927</v>
+        <v>19.2231080856531</v>
       </c>
       <c r="C11">
-        <v>15.6937743491418</v>
+        <v>10.29599013201312</v>
       </c>
       <c r="D11">
-        <v>5.198601201300581</v>
+        <v>8.18239165465388</v>
       </c>
       <c r="E11">
-        <v>7.035060410931698</v>
+        <v>12.58078763064008</v>
       </c>
       <c r="F11">
-        <v>22.7167862080882</v>
+        <v>34.3373581756747</v>
       </c>
       <c r="I11">
-        <v>13.7501851872642</v>
+        <v>25.30131964981429</v>
       </c>
       <c r="J11">
-        <v>5.763633694962412</v>
+        <v>9.856755844733254</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.582641743436946</v>
+        <v>11.34586855992464</v>
       </c>
       <c r="M11">
-        <v>15.68235872367227</v>
+        <v>17.03458952136335</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.51386159918336</v>
+        <v>26.31924689785494</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35444845643306</v>
+        <v>19.36191317263294</v>
       </c>
       <c r="C12">
-        <v>15.86129440048971</v>
+        <v>10.37853314289665</v>
       </c>
       <c r="D12">
-        <v>5.218432518263262</v>
+        <v>8.183146759054214</v>
       </c>
       <c r="E12">
-        <v>7.012696611255316</v>
+        <v>12.57256436227229</v>
       </c>
       <c r="F12">
-        <v>22.78399502166692</v>
+        <v>34.31300482435212</v>
       </c>
       <c r="I12">
-        <v>13.6782843571197</v>
+        <v>25.26641014116415</v>
       </c>
       <c r="J12">
-        <v>5.749521556521471</v>
+        <v>9.85216114740513</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.621899290994441</v>
+        <v>11.34906522899129</v>
       </c>
       <c r="M12">
-        <v>15.84568508721506</v>
+        <v>17.07414040991739</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.53619526938749</v>
+        <v>26.29583428928676</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.28100615292656</v>
+        <v>19.3320998748416</v>
       </c>
       <c r="C13">
-        <v>15.82535263499614</v>
+        <v>10.36081910070703</v>
       </c>
       <c r="D13">
-        <v>5.214156825936976</v>
+        <v>8.182979541154891</v>
       </c>
       <c r="E13">
-        <v>7.017501456649454</v>
+        <v>12.57432806765871</v>
       </c>
       <c r="F13">
-        <v>22.76931415943475</v>
+        <v>34.31819148303419</v>
       </c>
       <c r="I13">
-        <v>13.69363967299526</v>
+        <v>25.27389272952699</v>
       </c>
       <c r="J13">
-        <v>5.752555529011566</v>
+        <v>9.85314675635545</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.613443446974472</v>
+        <v>11.34836953401607</v>
       </c>
       <c r="M13">
-        <v>15.81062491211815</v>
+        <v>17.06562127386701</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.53121639837809</v>
+        <v>26.30083405467176</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.04024125658335</v>
+        <v>19.23456395004566</v>
       </c>
       <c r="C14">
-        <v>15.7076178969242</v>
+        <v>10.30280935732223</v>
       </c>
       <c r="D14">
-        <v>5.200230622913534</v>
+        <v>8.182451706874829</v>
       </c>
       <c r="E14">
-        <v>7.033215294392253</v>
+        <v>12.58010779670304</v>
       </c>
       <c r="F14">
-        <v>22.72222282075921</v>
+        <v>34.33532835965293</v>
       </c>
       <c r="I14">
-        <v>13.74421175227399</v>
+        <v>25.29843149198666</v>
       </c>
       <c r="J14">
-        <v>5.762470271178021</v>
+        <v>9.856376059590247</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.58587099066963</v>
+        <v>11.34612828899236</v>
       </c>
       <c r="M14">
-        <v>15.69584747236621</v>
+        <v>17.0378428452954</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.51562317885156</v>
+        <v>26.31730155577251</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.8918009280969</v>
+        <v>19.17458538522649</v>
       </c>
       <c r="C15">
-        <v>15.63510196271322</v>
+        <v>10.2670927299747</v>
       </c>
       <c r="D15">
-        <v>5.191714209562061</v>
+        <v>8.182141854202431</v>
       </c>
       <c r="E15">
-        <v>7.042874513544188</v>
+        <v>12.5836695007009</v>
       </c>
       <c r="F15">
-        <v>22.69397910433315</v>
+        <v>34.34599573417454</v>
       </c>
       <c r="I15">
-        <v>13.77556421239448</v>
+        <v>25.31356701417605</v>
       </c>
       <c r="J15">
-        <v>5.768559038080936</v>
+        <v>9.858365648632519</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.568985444179148</v>
+        <v>11.34477667666282</v>
       </c>
       <c r="M15">
-        <v>15.62520679667043</v>
+        <v>17.02083152533726</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.50656306705334</v>
+        <v>26.32751293265006</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.02629491746247</v>
+        <v>18.82735111915031</v>
       </c>
       <c r="C16">
-        <v>15.21342205953316</v>
+        <v>10.05962708846323</v>
       </c>
       <c r="D16">
-        <v>5.143127385099174</v>
+        <v>8.180573108257972</v>
       </c>
       <c r="E16">
-        <v>7.098752684361564</v>
+        <v>12.60440951310378</v>
       </c>
       <c r="F16">
-        <v>22.54121258580689</v>
+        <v>34.40973639354085</v>
       </c>
       <c r="I16">
-        <v>13.96079742383386</v>
+        <v>25.4019091167724</v>
       </c>
       <c r="J16">
-        <v>5.803696158905918</v>
+        <v>9.869944473206846</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.472289520930296</v>
+        <v>11.33735758938083</v>
       </c>
       <c r="M16">
-        <v>15.21527854730926</v>
+        <v>16.92342272677941</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.46202025639036</v>
+        <v>26.38793664144491</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48200955830972</v>
+        <v>18.61128290216377</v>
       </c>
       <c r="C17">
-        <v>14.94928848266263</v>
+        <v>9.929902215621984</v>
       </c>
       <c r="D17">
-        <v>5.113521470146014</v>
+        <v>8.179795963706656</v>
       </c>
       <c r="E17">
-        <v>7.133504318207497</v>
+        <v>12.61742725882003</v>
       </c>
       <c r="F17">
-        <v>22.45546270811063</v>
+        <v>34.45116429197938</v>
       </c>
       <c r="I17">
-        <v>14.07919827941964</v>
+        <v>25.45753761538349</v>
       </c>
       <c r="J17">
-        <v>5.825474625099615</v>
+        <v>9.877206238496395</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.413049185152583</v>
+        <v>11.33309890169621</v>
       </c>
       <c r="M17">
-        <v>14.95928198560771</v>
+        <v>16.86375362990942</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.44111125568666</v>
+        <v>26.42670284410597</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.16402629852984</v>
+        <v>18.48592237212871</v>
       </c>
       <c r="C18">
-        <v>14.79537144411128</v>
+        <v>9.854402220634402</v>
       </c>
       <c r="D18">
-        <v>5.096569307396074</v>
+        <v>8.179417282403817</v>
       </c>
       <c r="E18">
-        <v>7.153667503877885</v>
+        <v>12.62502314116985</v>
       </c>
       <c r="F18">
-        <v>22.40901227834838</v>
+        <v>34.47584532152869</v>
       </c>
       <c r="I18">
-        <v>14.14897558464986</v>
+        <v>25.49006043894931</v>
       </c>
       <c r="J18">
-        <v>5.838084713241794</v>
+        <v>9.881441404329186</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.379012481954822</v>
+        <v>11.33075751410533</v>
       </c>
       <c r="M18">
-        <v>14.81039884653148</v>
+        <v>16.82947385590326</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.43137666144382</v>
+        <v>26.44962305711368</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.055514209516</v>
+        <v>18.44329500360873</v>
       </c>
       <c r="C19">
-        <v>14.74291606051919</v>
+        <v>9.82868861965944</v>
       </c>
       <c r="D19">
-        <v>5.090842973111124</v>
+        <v>8.179300822464274</v>
       </c>
       <c r="E19">
-        <v>7.160524598498143</v>
+        <v>12.62761361857079</v>
       </c>
       <c r="F19">
-        <v>22.39377241124476</v>
+        <v>34.48434820316577</v>
       </c>
       <c r="I19">
-        <v>14.17288207204383</v>
+        <v>25.50116258304424</v>
       </c>
       <c r="J19">
-        <v>5.842368808868822</v>
+        <v>9.882885399779981</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.36749529125988</v>
+        <v>11.3299833763185</v>
       </c>
       <c r="M19">
-        <v>14.75970987003748</v>
+        <v>16.81787499185869</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.42846796162439</v>
+        <v>26.45749032282528</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54045873448167</v>
+        <v>18.63439677267416</v>
       </c>
       <c r="C20">
-        <v>14.97761255078683</v>
+        <v>9.943803669946563</v>
       </c>
       <c r="D20">
-        <v>5.116665226972706</v>
+        <v>8.179871627432547</v>
       </c>
       <c r="E20">
-        <v>7.129786871606888</v>
+        <v>12.61603028156928</v>
       </c>
       <c r="F20">
-        <v>22.4642925111124</v>
+        <v>34.44666592221559</v>
       </c>
       <c r="I20">
-        <v>14.06641917989409</v>
+        <v>25.45156134650782</v>
       </c>
       <c r="J20">
-        <v>5.82314764738676</v>
+        <v>9.876427170939708</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.419351788312113</v>
+        <v>11.33354107060529</v>
       </c>
       <c r="M20">
-        <v>14.98670354500857</v>
+        <v>16.87010151438104</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.44309836732297</v>
+        <v>26.42251161942837</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.11116066445466</v>
+        <v>19.26326177629152</v>
       </c>
       <c r="C21">
-        <v>15.74228282600398</v>
+        <v>10.31988664142107</v>
       </c>
       <c r="D21">
-        <v>5.20431822694851</v>
+        <v>8.182603940706846</v>
       </c>
       <c r="E21">
-        <v>7.028592673513923</v>
+        <v>12.57840568059617</v>
       </c>
       <c r="F21">
-        <v>22.7359291247604</v>
+        <v>34.33025929383965</v>
       </c>
       <c r="I21">
-        <v>13.72927875938402</v>
+        <v>25.29120201764229</v>
       </c>
       <c r="J21">
-        <v>5.759554809168975</v>
+        <v>9.8554251291678</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.593969024041177</v>
+        <v>11.34678217892014</v>
       </c>
       <c r="M21">
-        <v>15.72963053248027</v>
+        <v>17.04600130159353</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.52010056206792</v>
+        <v>26.31243868755584</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09444472245067</v>
+        <v>19.66384199829099</v>
       </c>
       <c r="C22">
-        <v>16.22415260444532</v>
+        <v>10.55748345235322</v>
       </c>
       <c r="D22">
-        <v>5.262228807616609</v>
+        <v>8.184992802608589</v>
       </c>
       <c r="E22">
-        <v>6.963983833662385</v>
+        <v>12.55477661080576</v>
       </c>
       <c r="F22">
-        <v>22.94021083161258</v>
+        <v>34.26180951221474</v>
       </c>
       <c r="I22">
-        <v>13.52554082705467</v>
+        <v>25.19108943265691</v>
       </c>
       <c r="J22">
-        <v>5.718700700474648</v>
+        <v>9.842216273473266</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.708262751341444</v>
+        <v>11.35638700127522</v>
       </c>
       <c r="M22">
-        <v>16.20017986976925</v>
+        <v>17.16115211202996</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.59223234270819</v>
+        <v>26.24607140104283</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57357660319481</v>
+        <v>19.4510330340646</v>
       </c>
       <c r="C23">
-        <v>15.96861023679142</v>
+        <v>10.43143715227782</v>
       </c>
       <c r="D23">
-        <v>5.231266320675039</v>
+        <v>8.183662890796073</v>
       </c>
       <c r="E23">
-        <v>6.998328516098801</v>
+        <v>12.56730020367136</v>
       </c>
       <c r="F23">
-        <v>22.82867898416384</v>
+        <v>34.29764279745001</v>
       </c>
       <c r="I23">
-        <v>13.63267293110024</v>
+        <v>25.24409208464485</v>
       </c>
       <c r="J23">
-        <v>5.740442457404844</v>
+        <v>9.849218898403031</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.647253546484468</v>
+        <v>11.35117428738685</v>
       </c>
       <c r="M23">
-        <v>15.95042665260299</v>
+        <v>17.09968471494032</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.5516721887431</v>
+        <v>26.2809818704443</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51404964902081</v>
+        <v>18.62395053392398</v>
       </c>
       <c r="C24">
-        <v>14.96481366407268</v>
+        <v>9.937521682752342</v>
       </c>
       <c r="D24">
-        <v>5.115243719979354</v>
+        <v>8.179837207664225</v>
       </c>
       <c r="E24">
-        <v>7.131466955730964</v>
+        <v>12.61666150666592</v>
       </c>
       <c r="F24">
-        <v>22.46029169882452</v>
+        <v>34.44869694556161</v>
       </c>
       <c r="I24">
-        <v>14.07219131137613</v>
+        <v>25.45426153165137</v>
       </c>
       <c r="J24">
-        <v>5.824199395269904</v>
+        <v>9.876779199579868</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.416502313123319</v>
+        <v>11.3333408326582</v>
       </c>
       <c r="M24">
-        <v>14.97431157118102</v>
+        <v>16.86723155671618</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.44219288858374</v>
+        <v>26.42440450057802</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.10389979740906</v>
+        <v>17.69094625406601</v>
       </c>
       <c r="C25">
-        <v>13.80599751795133</v>
+        <v>9.371138443177534</v>
       </c>
       <c r="D25">
-        <v>4.993050902405076</v>
+        <v>8.178325005762206</v>
       </c>
       <c r="E25">
-        <v>7.281785816655916</v>
+        <v>12.67405371194172</v>
       </c>
       <c r="F25">
-        <v>22.17184621203888</v>
+        <v>34.64421464938693</v>
       </c>
       <c r="I25">
-        <v>14.60965831736786</v>
+        <v>25.70110424617187</v>
       </c>
       <c r="J25">
-        <v>5.91776460649136</v>
+        <v>9.908741582628512</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.169113629962172</v>
+        <v>11.31824330138003</v>
       </c>
       <c r="M25">
-        <v>13.85908032545629</v>
+        <v>16.61813367952537</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.41085092275279</v>
+        <v>26.6029094372265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.97360316259546</v>
+        <v>21.16371161355755</v>
       </c>
       <c r="C2">
-        <v>8.927199038821946</v>
+        <v>12.88864764536918</v>
       </c>
       <c r="D2">
-        <v>8.179484323685445</v>
+        <v>4.905920462794284</v>
       </c>
       <c r="E2">
-        <v>12.71991215803201</v>
+        <v>7.398419421998963</v>
       </c>
       <c r="F2">
-        <v>34.81600840799248</v>
+        <v>22.04586551603763</v>
       </c>
       <c r="I2">
-        <v>25.90020916364046</v>
+        <v>15.05257367733785</v>
       </c>
       <c r="J2">
-        <v>9.934216296803422</v>
+        <v>5.989628945707953</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.31073906751209</v>
+        <v>6.98915600791042</v>
       </c>
       <c r="M2">
-        <v>16.43699828793629</v>
+        <v>12.9873424578132</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.75469176677674</v>
+        <v>16.4545830580435</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.47134532421442</v>
+        <v>19.74387155810691</v>
       </c>
       <c r="C3">
-        <v>8.610807771909453</v>
+        <v>12.22810450472839</v>
       </c>
       <c r="D3">
-        <v>8.181699412178238</v>
+        <v>4.848798421427516</v>
       </c>
       <c r="E3">
-        <v>12.75325384499578</v>
+        <v>7.481268995532265</v>
       </c>
       <c r="F3">
-        <v>34.94969786146713</v>
+        <v>22.01036367549447</v>
       </c>
       <c r="I3">
-        <v>26.04598948743855</v>
+        <v>15.37917215267486</v>
       </c>
       <c r="J3">
-        <v>9.952701352754108</v>
+        <v>6.040282113707629</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.30793128581077</v>
+        <v>6.869054999403129</v>
       </c>
       <c r="M3">
-        <v>16.31609476631339</v>
+        <v>12.36719761902861</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.87018873949422</v>
+        <v>16.52191836370573</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.15609732352316</v>
+        <v>18.81978002789722</v>
       </c>
       <c r="C4">
-        <v>8.409388972004225</v>
+        <v>11.8039372793279</v>
       </c>
       <c r="D4">
-        <v>8.183768361102507</v>
+        <v>4.814728070167015</v>
       </c>
       <c r="E4">
-        <v>12.77484751703677</v>
+        <v>7.534045671654009</v>
       </c>
       <c r="F4">
-        <v>35.04026403197751</v>
+        <v>22.01174183993088</v>
       </c>
       <c r="I4">
-        <v>26.14085487560599</v>
+        <v>15.59190788492775</v>
       </c>
       <c r="J4">
-        <v>9.964656550594725</v>
+        <v>6.072375096537542</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.30733878506446</v>
+        <v>6.79640044926701</v>
       </c>
       <c r="M4">
-        <v>16.24291824750643</v>
+        <v>11.97292577737008</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.94731461301953</v>
+        <v>16.58053775954521</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.02608497996088</v>
+        <v>18.42997665841154</v>
       </c>
       <c r="C5">
-        <v>8.325597113346564</v>
+        <v>11.62652145500704</v>
       </c>
       <c r="D5">
-        <v>8.184790320582309</v>
+        <v>4.801104216499149</v>
       </c>
       <c r="E5">
-        <v>12.78392994963343</v>
+        <v>7.556036160881076</v>
       </c>
       <c r="F5">
-        <v>35.07929759272006</v>
+        <v>22.01791225951018</v>
       </c>
       <c r="I5">
-        <v>26.18086078127853</v>
+        <v>15.68155788303807</v>
       </c>
       <c r="J5">
-        <v>9.969681047318959</v>
+        <v>6.085706779628776</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.30738307239289</v>
+        <v>6.767093245489589</v>
       </c>
       <c r="M5">
-        <v>16.21338629803021</v>
+        <v>11.80904088409655</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.98030246486622</v>
+        <v>16.60857535659893</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.00440862042997</v>
+        <v>18.36444891872845</v>
       </c>
       <c r="C6">
-        <v>8.311582857480191</v>
+        <v>11.596789740353</v>
       </c>
       <c r="D6">
-        <v>8.184970834923874</v>
+        <v>4.798857919851921</v>
       </c>
       <c r="E6">
-        <v>12.78545518576075</v>
+        <v>7.559716990230382</v>
       </c>
       <c r="F6">
-        <v>35.08590739916288</v>
+        <v>22.01926908724328</v>
       </c>
       <c r="I6">
-        <v>26.1875851400909</v>
+        <v>15.69661990532741</v>
       </c>
       <c r="J6">
-        <v>9.9705245944791</v>
+        <v>6.087935927058861</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.30740771814485</v>
+        <v>6.762245706502664</v>
       </c>
       <c r="M6">
-        <v>16.20850056857322</v>
+        <v>11.78163951114063</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.98587410431335</v>
+        <v>16.61347598232273</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.15434994644212</v>
+        <v>18.81457666600635</v>
       </c>
       <c r="C7">
-        <v>8.408265736152718</v>
+        <v>11.80156290383974</v>
       </c>
       <c r="D7">
-        <v>8.183781418689755</v>
+        <v>4.814543270780729</v>
       </c>
       <c r="E7">
-        <v>12.77496885968653</v>
+        <v>7.53434027972896</v>
       </c>
       <c r="F7">
-        <v>35.04078184681644</v>
+        <v>22.01180264049291</v>
       </c>
       <c r="I7">
-        <v>26.14138895226667</v>
+        <v>15.59310509352633</v>
       </c>
       <c r="J7">
-        <v>9.964723694017948</v>
+        <v>6.072553860332993</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.30733822384992</v>
+        <v>6.796003951899405</v>
       </c>
       <c r="M7">
-        <v>16.24251877439439</v>
+        <v>11.97072833100282</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.94775319294516</v>
+        <v>16.58089933708105</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.80195149638622</v>
+        <v>20.68496014727597</v>
       </c>
       <c r="C8">
-        <v>8.819641057639828</v>
+        <v>12.66480998351004</v>
       </c>
       <c r="D8">
-        <v>8.180101320800274</v>
+        <v>4.886021486426779</v>
       </c>
       <c r="E8">
-        <v>12.73117601561061</v>
+        <v>7.426592718161936</v>
       </c>
       <c r="F8">
-        <v>34.86034128753442</v>
+        <v>22.02868451537297</v>
       </c>
       <c r="I8">
-        <v>25.94936309808237</v>
+        <v>15.16258176864756</v>
       </c>
       <c r="J8">
-        <v>9.940464585190103</v>
+        <v>6.006890872544203</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.30953685048104</v>
+        <v>6.947535281311044</v>
       </c>
       <c r="M8">
-        <v>16.39510425348541</v>
+        <v>12.77641670137953</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.79322427583549</v>
+        <v>16.47409721900269</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.01029439511294</v>
+        <v>23.94126501229418</v>
       </c>
       <c r="C9">
-        <v>9.566254641836162</v>
+        <v>14.20642093782048</v>
       </c>
       <c r="D9">
-        <v>8.178482941893748</v>
+        <v>5.033791162778621</v>
       </c>
       <c r="E9">
-        <v>12.65416392544987</v>
+        <v>7.230237981455087</v>
       </c>
       <c r="F9">
-        <v>34.57401742846884</v>
+        <v>22.25507825397617</v>
       </c>
       <c r="I9">
-        <v>25.61526115507191</v>
+        <v>14.42083786610827</v>
       </c>
       <c r="J9">
-        <v>9.897674795464081</v>
+        <v>5.885798398522424</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.32277126833785</v>
+        <v>7.252168864476578</v>
       </c>
       <c r="M9">
-        <v>16.7017474894972</v>
+        <v>14.24284760301451</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.53961049476534</v>
+        <v>16.4105032812887</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.85185638328617</v>
+        <v>26.08773634395318</v>
       </c>
       <c r="C10">
-        <v>10.07430846079906</v>
+        <v>15.24329072527399</v>
       </c>
       <c r="D10">
-        <v>8.180671025018032</v>
+        <v>5.146515779281305</v>
       </c>
       <c r="E10">
-        <v>12.60293877286677</v>
+        <v>7.094810885376596</v>
       </c>
       <c r="F10">
-        <v>34.40512485986806</v>
+        <v>22.55139042682818</v>
       </c>
       <c r="I10">
-        <v>25.39563289959245</v>
+        <v>13.94751954433605</v>
       </c>
       <c r="J10">
-        <v>9.869123757873982</v>
+        <v>5.801222299245858</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.33785814413255</v>
+        <v>7.479053683573851</v>
       </c>
       <c r="M10">
-        <v>16.93023627193102</v>
+        <v>15.24426570837455</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.38359764035937</v>
+        <v>16.46472147518918</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.2231080856531</v>
+        <v>27.01191220751932</v>
       </c>
       <c r="C11">
-        <v>10.29599013201312</v>
+        <v>15.69377434914174</v>
       </c>
       <c r="D11">
-        <v>8.18239165465388</v>
+        <v>5.198601201300665</v>
       </c>
       <c r="E11">
-        <v>12.58078763064008</v>
+        <v>7.035060410931701</v>
       </c>
       <c r="F11">
-        <v>34.3373581756747</v>
+        <v>22.71678620808812</v>
       </c>
       <c r="I11">
-        <v>25.30131964981429</v>
+        <v>13.75018518726403</v>
       </c>
       <c r="J11">
-        <v>9.856755844733254</v>
+        <v>5.763633694962377</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.34586855992464</v>
+        <v>7.582641743436959</v>
       </c>
       <c r="M11">
-        <v>17.03458952136335</v>
+        <v>15.68235872367228</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.31924689785494</v>
+        <v>16.51386159918327</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.36191317263294</v>
+        <v>27.35444845643307</v>
       </c>
       <c r="C12">
-        <v>10.37853314289665</v>
+        <v>15.86129440048968</v>
       </c>
       <c r="D12">
-        <v>8.183146759054214</v>
+        <v>5.218432518263273</v>
       </c>
       <c r="E12">
-        <v>12.57256436227229</v>
+        <v>7.012696611255316</v>
       </c>
       <c r="F12">
-        <v>34.31300482435212</v>
+        <v>22.78399502166691</v>
       </c>
       <c r="I12">
-        <v>25.26641014116415</v>
+        <v>13.67828435711969</v>
       </c>
       <c r="J12">
-        <v>9.85216114740513</v>
+        <v>5.749521556521471</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.34906522899129</v>
+        <v>7.621899290994441</v>
       </c>
       <c r="M12">
-        <v>17.07414040991739</v>
+        <v>15.84568508721507</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.29583428928676</v>
+        <v>16.53619526938747</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.3320998748416</v>
+        <v>27.28100615292657</v>
       </c>
       <c r="C13">
-        <v>10.36081910070703</v>
+        <v>15.82535263499619</v>
       </c>
       <c r="D13">
-        <v>8.182979541154891</v>
+        <v>5.214156825936981</v>
       </c>
       <c r="E13">
-        <v>12.57432806765871</v>
+        <v>7.017501456649455</v>
       </c>
       <c r="F13">
-        <v>34.31819148303419</v>
+        <v>22.76931415943468</v>
       </c>
       <c r="I13">
-        <v>25.27389272952699</v>
+        <v>13.69363967299519</v>
       </c>
       <c r="J13">
-        <v>9.85314675635545</v>
+        <v>5.752555529011529</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.34836953401607</v>
+        <v>7.613443446974396</v>
       </c>
       <c r="M13">
-        <v>17.06562127386701</v>
+        <v>15.81062491211812</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.30083405467176</v>
+        <v>16.53121639837802</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.23456395004566</v>
+        <v>27.04024125658338</v>
       </c>
       <c r="C14">
-        <v>10.30280935732223</v>
+        <v>15.7076178969242</v>
       </c>
       <c r="D14">
-        <v>8.182451706874829</v>
+        <v>5.200230622913534</v>
       </c>
       <c r="E14">
-        <v>12.58010779670304</v>
+        <v>7.033215294392189</v>
       </c>
       <c r="F14">
-        <v>34.33532835965293</v>
+        <v>22.72222282075924</v>
       </c>
       <c r="I14">
-        <v>25.29843149198666</v>
+        <v>13.74421175227402</v>
       </c>
       <c r="J14">
-        <v>9.856376059590247</v>
+        <v>5.76247027117802</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.34612828899236</v>
+        <v>7.585870990669622</v>
       </c>
       <c r="M14">
-        <v>17.0378428452954</v>
+        <v>15.6958474723662</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.31730155577251</v>
+        <v>16.51562317885157</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.17458538522649</v>
+        <v>26.89180092809693</v>
       </c>
       <c r="C15">
-        <v>10.2670927299747</v>
+        <v>15.63510196271311</v>
       </c>
       <c r="D15">
-        <v>8.182141854202431</v>
+        <v>5.19171420956197</v>
       </c>
       <c r="E15">
-        <v>12.5836695007009</v>
+        <v>7.042874513544054</v>
       </c>
       <c r="F15">
-        <v>34.34599573417454</v>
+        <v>22.69397910433328</v>
       </c>
       <c r="I15">
-        <v>25.31356701417605</v>
+        <v>13.77556421239461</v>
       </c>
       <c r="J15">
-        <v>9.858365648632519</v>
+        <v>5.768559038080902</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.34477667666282</v>
+        <v>7.568985444179109</v>
       </c>
       <c r="M15">
-        <v>17.02083152533726</v>
+        <v>15.62520679667042</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.32751293265006</v>
+        <v>16.50656306705347</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.82735111915031</v>
+        <v>26.02629491746252</v>
       </c>
       <c r="C16">
-        <v>10.05962708846323</v>
+        <v>15.21342205953303</v>
       </c>
       <c r="D16">
-        <v>8.180573108257972</v>
+        <v>5.143127385099008</v>
       </c>
       <c r="E16">
-        <v>12.60440951310378</v>
+        <v>7.098752684361433</v>
       </c>
       <c r="F16">
-        <v>34.40973639354085</v>
+        <v>22.54121258580675</v>
       </c>
       <c r="I16">
-        <v>25.4019091167724</v>
+        <v>13.96079742383371</v>
       </c>
       <c r="J16">
-        <v>9.869944473206846</v>
+        <v>5.803696158905885</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.33735758938083</v>
+        <v>7.472289520930274</v>
       </c>
       <c r="M16">
-        <v>16.92342272677941</v>
+        <v>15.21527854730925</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.38793664144491</v>
+        <v>16.46202025639029</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.61128290216377</v>
+        <v>25.48200955830965</v>
       </c>
       <c r="C17">
-        <v>9.929902215621984</v>
+        <v>14.94928848266282</v>
       </c>
       <c r="D17">
-        <v>8.179795963706656</v>
+        <v>5.113521470145791</v>
       </c>
       <c r="E17">
-        <v>12.61742725882003</v>
+        <v>7.133504318207495</v>
       </c>
       <c r="F17">
-        <v>34.45116429197938</v>
+        <v>22.45546270811055</v>
       </c>
       <c r="I17">
-        <v>25.45753761538349</v>
+        <v>14.0791982794197</v>
       </c>
       <c r="J17">
-        <v>9.877206238496395</v>
+        <v>5.825474625099647</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.33309890169621</v>
+        <v>7.413049185152502</v>
       </c>
       <c r="M17">
-        <v>16.86375362990942</v>
+        <v>14.95928198560771</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.42670284410597</v>
+        <v>16.44111125568664</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.48592237212871</v>
+        <v>25.16402629852983</v>
       </c>
       <c r="C18">
-        <v>9.854402220634402</v>
+        <v>14.79537144411137</v>
       </c>
       <c r="D18">
-        <v>8.179417282403817</v>
+        <v>5.096569307396033</v>
       </c>
       <c r="E18">
-        <v>12.62502314116985</v>
+        <v>7.153667503877885</v>
       </c>
       <c r="F18">
-        <v>34.47584532152869</v>
+        <v>22.40901227834838</v>
       </c>
       <c r="I18">
-        <v>25.49006043894931</v>
+        <v>14.14897558464991</v>
       </c>
       <c r="J18">
-        <v>9.881441404329186</v>
+        <v>5.838084713241794</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.33075751410533</v>
+        <v>7.379012481954793</v>
       </c>
       <c r="M18">
-        <v>16.82947385590326</v>
+        <v>14.81039884653147</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.44962305711368</v>
+        <v>16.43137666144381</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.44329500360873</v>
+        <v>25.05551420951607</v>
       </c>
       <c r="C19">
-        <v>9.82868861965944</v>
+        <v>14.74291606051931</v>
       </c>
       <c r="D19">
-        <v>8.179300822464274</v>
+        <v>5.090842973111208</v>
       </c>
       <c r="E19">
-        <v>12.62761361857079</v>
+        <v>7.160524598498143</v>
       </c>
       <c r="F19">
-        <v>34.48434820316577</v>
+        <v>22.39377241124459</v>
       </c>
       <c r="I19">
-        <v>25.50116258304424</v>
+        <v>14.17288207204374</v>
       </c>
       <c r="J19">
-        <v>9.882885399779981</v>
+        <v>5.842368808868789</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.3299833763185</v>
+        <v>7.367495291259791</v>
       </c>
       <c r="M19">
-        <v>16.81787499185869</v>
+        <v>14.75970987003744</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.45749032282528</v>
+        <v>16.42846796162424</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.63439677267416</v>
+        <v>25.54045873448165</v>
       </c>
       <c r="C20">
-        <v>9.943803669946563</v>
+        <v>14.97761255078684</v>
       </c>
       <c r="D20">
-        <v>8.179871627432547</v>
+        <v>5.116665226972946</v>
       </c>
       <c r="E20">
-        <v>12.61603028156928</v>
+        <v>7.129786871607021</v>
       </c>
       <c r="F20">
-        <v>34.44666592221559</v>
+        <v>22.46429251111262</v>
       </c>
       <c r="I20">
-        <v>25.45156134650782</v>
+        <v>14.06641917989424</v>
       </c>
       <c r="J20">
-        <v>9.876427170939708</v>
+        <v>5.823147647386791</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.33354107060529</v>
+        <v>7.419351788312123</v>
       </c>
       <c r="M20">
-        <v>16.87010151438104</v>
+        <v>14.9867035450086</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.42251161942837</v>
+        <v>16.44309836732307</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.26326177629152</v>
+        <v>27.11116066445465</v>
       </c>
       <c r="C21">
-        <v>10.31988664142107</v>
+        <v>15.74228282600401</v>
       </c>
       <c r="D21">
-        <v>8.182603940706846</v>
+        <v>5.20431822694851</v>
       </c>
       <c r="E21">
-        <v>12.57840568059617</v>
+        <v>7.028592673513989</v>
       </c>
       <c r="F21">
-        <v>34.33025929383965</v>
+        <v>22.73592912476045</v>
       </c>
       <c r="I21">
-        <v>25.29120201764229</v>
+        <v>13.72927875938406</v>
       </c>
       <c r="J21">
-        <v>9.8554251291678</v>
+        <v>5.759554809168973</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.34678217892014</v>
+        <v>7.593969024041153</v>
       </c>
       <c r="M21">
-        <v>17.04600130159353</v>
+        <v>15.72963053248026</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.31243868755584</v>
+        <v>16.52010056206794</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.66384199829099</v>
+        <v>28.09444472245066</v>
       </c>
       <c r="C22">
-        <v>10.55748345235322</v>
+        <v>16.2241526044455</v>
       </c>
       <c r="D22">
-        <v>8.184992802608589</v>
+        <v>5.262228807616577</v>
       </c>
       <c r="E22">
-        <v>12.55477661080576</v>
+        <v>6.963983833662319</v>
       </c>
       <c r="F22">
-        <v>34.26180951221474</v>
+        <v>22.94021083161245</v>
       </c>
       <c r="I22">
-        <v>25.19108943265691</v>
+        <v>13.52554082705466</v>
       </c>
       <c r="J22">
-        <v>9.842216273473266</v>
+        <v>5.718700700474646</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.35638700127522</v>
+        <v>7.708262751341313</v>
       </c>
       <c r="M22">
-        <v>17.16115211202996</v>
+        <v>16.20017986976922</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.24607140104283</v>
+        <v>16.59223234270809</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.4510330340646</v>
+        <v>27.57357660319485</v>
       </c>
       <c r="C23">
-        <v>10.43143715227782</v>
+        <v>15.96861023679119</v>
       </c>
       <c r="D23">
-        <v>8.183662890796073</v>
+        <v>5.231266320674995</v>
       </c>
       <c r="E23">
-        <v>12.56730020367136</v>
+        <v>6.998328516098671</v>
       </c>
       <c r="F23">
-        <v>34.29764279745001</v>
+        <v>22.82867898416383</v>
       </c>
       <c r="I23">
-        <v>25.24409208464485</v>
+        <v>13.6326729311002</v>
       </c>
       <c r="J23">
-        <v>9.849218898403031</v>
+        <v>5.740442457404808</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.35117428738685</v>
+        <v>7.647253546484456</v>
       </c>
       <c r="M23">
-        <v>17.09968471494032</v>
+        <v>15.95042665260297</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.2809818704443</v>
+        <v>16.5516721887431</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.62395053392398</v>
+        <v>25.51404964902073</v>
       </c>
       <c r="C24">
-        <v>9.937521682752342</v>
+        <v>14.96481366407244</v>
       </c>
       <c r="D24">
-        <v>8.179837207664225</v>
+        <v>5.11524371997943</v>
       </c>
       <c r="E24">
-        <v>12.61666150666592</v>
+        <v>7.131466955730832</v>
       </c>
       <c r="F24">
-        <v>34.44869694556161</v>
+        <v>22.46029169882479</v>
       </c>
       <c r="I24">
-        <v>25.45426153165137</v>
+        <v>14.07219131137634</v>
       </c>
       <c r="J24">
-        <v>9.876779199579868</v>
+        <v>5.824199395269804</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.3333408326582</v>
+        <v>7.416502313123329</v>
       </c>
       <c r="M24">
-        <v>16.86723155671618</v>
+        <v>14.97431157118103</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.42440450057802</v>
+        <v>16.44219288858393</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.69094625406601</v>
+        <v>23.10389979740911</v>
       </c>
       <c r="C25">
-        <v>9.371138443177534</v>
+        <v>13.80599751795125</v>
       </c>
       <c r="D25">
-        <v>8.178325005762206</v>
+        <v>4.993050902404947</v>
       </c>
       <c r="E25">
-        <v>12.67405371194172</v>
+        <v>7.281785816655849</v>
       </c>
       <c r="F25">
-        <v>34.64421464938693</v>
+        <v>22.17184621203872</v>
       </c>
       <c r="I25">
-        <v>25.70110424617187</v>
+        <v>14.60965831736776</v>
       </c>
       <c r="J25">
-        <v>9.908741582628512</v>
+        <v>5.917764606491391</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.31824330138003</v>
+        <v>7.169113629962156</v>
       </c>
       <c r="M25">
-        <v>16.61813367952537</v>
+        <v>13.85908032545627</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.6029094372265</v>
+        <v>16.41085092275269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.16371161355755</v>
+        <v>12.17919970398817</v>
       </c>
       <c r="C2">
-        <v>12.88864764536918</v>
+        <v>7.6450872120569</v>
       </c>
       <c r="D2">
-        <v>4.905920462794284</v>
+        <v>6.674384681063009</v>
       </c>
       <c r="E2">
-        <v>7.398419421998963</v>
+        <v>9.543696493707897</v>
       </c>
       <c r="F2">
-        <v>22.04586551603763</v>
+        <v>24.0822575297285</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.742279983436645</v>
       </c>
       <c r="I2">
-        <v>15.05257367733785</v>
+        <v>3.375569652109835</v>
       </c>
       <c r="J2">
-        <v>5.989628945707953</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.10274945261085</v>
       </c>
       <c r="L2">
-        <v>6.98915600791042</v>
+        <v>6.317265572741322</v>
       </c>
       <c r="M2">
-        <v>12.9873424578132</v>
+        <v>11.20761772690741</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.4545830580435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.23979454104226</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>17.53998605607118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74387155810691</v>
+        <v>11.42951221745867</v>
       </c>
       <c r="C3">
-        <v>12.22810450472839</v>
+        <v>7.208000547123487</v>
       </c>
       <c r="D3">
-        <v>4.848798421427516</v>
+        <v>6.365438648884812</v>
       </c>
       <c r="E3">
-        <v>7.481268995532265</v>
+        <v>9.197012627260397</v>
       </c>
       <c r="F3">
-        <v>22.01036367549447</v>
+        <v>23.80358304771299</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.946451431337531</v>
       </c>
       <c r="I3">
-        <v>15.37917215267486</v>
+        <v>3.52279569194403</v>
       </c>
       <c r="J3">
-        <v>6.040282113707629</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.18802159178536</v>
       </c>
       <c r="L3">
-        <v>6.869054999403129</v>
+        <v>6.216595193139486</v>
       </c>
       <c r="M3">
-        <v>12.36719761902861</v>
+        <v>10.59406493477</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.52191836370573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.7069503220164</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>17.52022605116515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.81978002789722</v>
+        <v>10.94154707848112</v>
       </c>
       <c r="C4">
-        <v>11.8039372793279</v>
+        <v>6.929447209273041</v>
       </c>
       <c r="D4">
-        <v>4.814728070167015</v>
+        <v>6.169407061425593</v>
       </c>
       <c r="E4">
-        <v>7.534045671654009</v>
+        <v>8.97728167108145</v>
       </c>
       <c r="F4">
-        <v>22.01174183993088</v>
+        <v>23.63725087519644</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.076521990076788</v>
       </c>
       <c r="I4">
-        <v>15.59190788492775</v>
+        <v>3.617201038523436</v>
       </c>
       <c r="J4">
-        <v>6.072375096537542</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.24363630595211</v>
       </c>
       <c r="L4">
-        <v>6.79640044926701</v>
+        <v>6.153083893321005</v>
       </c>
       <c r="M4">
-        <v>11.97292577737008</v>
+        <v>10.19850136618046</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.58053775954521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.36724374398408</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>17.51318730901236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42997665841154</v>
+        <v>10.73316951162347</v>
       </c>
       <c r="C5">
-        <v>11.62652145500704</v>
+        <v>6.823056007345094</v>
       </c>
       <c r="D5">
-        <v>4.801104216499149</v>
+        <v>6.090266943272399</v>
       </c>
       <c r="E5">
-        <v>7.556036160881076</v>
+        <v>8.88646994318901</v>
       </c>
       <c r="F5">
-        <v>22.01791225951018</v>
+        <v>23.5620696569395</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.130949078547389</v>
       </c>
       <c r="I5">
-        <v>15.68155788303807</v>
+        <v>3.659288550007997</v>
       </c>
       <c r="J5">
-        <v>6.085706779628776</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.26107369693413</v>
       </c>
       <c r="L5">
-        <v>6.767093245489589</v>
+        <v>6.126332381992783</v>
       </c>
       <c r="M5">
-        <v>11.80904088409655</v>
+        <v>10.03424714502343</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.60857535659893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.22740614023019</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>17.50532306502236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36444891872845</v>
+        <v>10.69497482027133</v>
       </c>
       <c r="C6">
-        <v>11.596789740353</v>
+        <v>6.817047880616438</v>
       </c>
       <c r="D6">
-        <v>4.798857919851921</v>
+        <v>6.079794785097305</v>
       </c>
       <c r="E6">
-        <v>7.559716990230382</v>
+        <v>8.87175534102194</v>
       </c>
       <c r="F6">
-        <v>22.01926908724328</v>
+        <v>23.5391060710927</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.140331915862861</v>
       </c>
       <c r="I6">
-        <v>15.69661990532741</v>
+        <v>3.669669809830128</v>
       </c>
       <c r="J6">
-        <v>6.087935927058861</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.25665704983988</v>
       </c>
       <c r="L6">
-        <v>6.762245706502664</v>
+        <v>6.121313364750963</v>
       </c>
       <c r="M6">
-        <v>11.78163951114063</v>
+        <v>10.00865721585856</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.61347598232273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.20597807588192</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>17.49645755734197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81457666600635</v>
+        <v>10.93028471536271</v>
       </c>
       <c r="C7">
-        <v>11.80156290383974</v>
+        <v>6.959615426781604</v>
       </c>
       <c r="D7">
-        <v>4.814543270780729</v>
+        <v>6.175749514994129</v>
       </c>
       <c r="E7">
-        <v>7.53434027972896</v>
+        <v>8.977316414694513</v>
       </c>
       <c r="F7">
-        <v>22.01180264049291</v>
+        <v>23.60756036637999</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.077981386125095</v>
       </c>
       <c r="I7">
-        <v>15.59310509352633</v>
+        <v>3.626573616633622</v>
       </c>
       <c r="J7">
-        <v>6.072553860332993</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.22379068782273</v>
       </c>
       <c r="L7">
-        <v>6.796003951899405</v>
+        <v>6.151235395389294</v>
       </c>
       <c r="M7">
-        <v>11.97072833100282</v>
+        <v>10.20157804874682</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.58089933708105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.37064922454765</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17.49228226628198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68496014727597</v>
+        <v>11.91605595151254</v>
       </c>
       <c r="C8">
-        <v>12.66480998351004</v>
+        <v>7.535543819819783</v>
       </c>
       <c r="D8">
-        <v>4.886021486426779</v>
+        <v>6.578463955189032</v>
       </c>
       <c r="E8">
-        <v>7.426592718161936</v>
+        <v>9.427251684514587</v>
       </c>
       <c r="F8">
-        <v>22.02868451537297</v>
+        <v>23.94802264496544</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.812616525854858</v>
       </c>
       <c r="I8">
-        <v>15.16258176864756</v>
+        <v>3.436706307938966</v>
       </c>
       <c r="J8">
-        <v>6.006890872544203</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.10504257099272</v>
       </c>
       <c r="L8">
-        <v>6.947535281311044</v>
+        <v>6.281020298663602</v>
       </c>
       <c r="M8">
-        <v>12.77641670137953</v>
+        <v>11.00660013276705</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.47409721900269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.06530223891409</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>17.50486688396215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.94126501229418</v>
+        <v>13.64283477983813</v>
       </c>
       <c r="C9">
-        <v>14.20642093782048</v>
+        <v>8.531875972363579</v>
       </c>
       <c r="D9">
-        <v>5.033791162778621</v>
+        <v>7.302616774451185</v>
       </c>
       <c r="E9">
-        <v>7.230237981455087</v>
+        <v>10.24986334604487</v>
       </c>
       <c r="F9">
-        <v>22.25507825397617</v>
+        <v>24.70209039926629</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.327706040732189</v>
       </c>
       <c r="I9">
-        <v>14.42083786610827</v>
+        <v>3.081354568129595</v>
       </c>
       <c r="J9">
-        <v>5.885798398522424</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.93461659693658</v>
       </c>
       <c r="L9">
-        <v>7.252168864476578</v>
+        <v>6.524211138628111</v>
       </c>
       <c r="M9">
-        <v>14.24284760301451</v>
+        <v>12.42465532662285</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.4105032812887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.31441364699826</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17.60813970515114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08773634395318</v>
+        <v>14.78914494256238</v>
       </c>
       <c r="C10">
-        <v>15.24329072527399</v>
+        <v>9.212410200671721</v>
       </c>
       <c r="D10">
-        <v>5.146515779281305</v>
+        <v>7.730142550271774</v>
       </c>
       <c r="E10">
-        <v>7.094810885376596</v>
+        <v>10.63941343033542</v>
       </c>
       <c r="F10">
-        <v>22.55139042682818</v>
+        <v>25.09233184428735</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.025024210002045</v>
       </c>
       <c r="I10">
-        <v>13.94751954433605</v>
+        <v>2.8485792201709</v>
       </c>
       <c r="J10">
-        <v>5.801222299245858</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.75064440104394</v>
       </c>
       <c r="L10">
-        <v>7.479053683573851</v>
+        <v>6.622971872722038</v>
       </c>
       <c r="M10">
-        <v>15.24426570837455</v>
+        <v>13.37829052919496</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.46472147518918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.06981896041414</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>17.61061574905274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.01191220751932</v>
+        <v>15.40208808681017</v>
       </c>
       <c r="C11">
-        <v>15.69377434914174</v>
+        <v>9.435821647878743</v>
       </c>
       <c r="D11">
-        <v>5.198601201300665</v>
+        <v>7.311467687630993</v>
       </c>
       <c r="E11">
-        <v>7.035060410931701</v>
+        <v>9.346302735162549</v>
       </c>
       <c r="F11">
-        <v>22.71678620808812</v>
+        <v>23.76420049161993</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.951168439577131</v>
       </c>
       <c r="I11">
-        <v>13.75018518726403</v>
+        <v>2.797560812149908</v>
       </c>
       <c r="J11">
-        <v>5.763633694962377</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.07609429343989</v>
       </c>
       <c r="L11">
-        <v>7.582641743436959</v>
+        <v>6.131629002835166</v>
       </c>
       <c r="M11">
-        <v>15.68235872367228</v>
+        <v>13.8380364500998</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.51386159918327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.584433075027</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.80498427504697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35444845643307</v>
+        <v>15.69967323337603</v>
       </c>
       <c r="C12">
-        <v>15.86129440048968</v>
+        <v>9.446930196188005</v>
       </c>
       <c r="D12">
-        <v>5.218432518263273</v>
+        <v>6.855824422469802</v>
       </c>
       <c r="E12">
-        <v>7.012696611255316</v>
+        <v>8.263743808255851</v>
       </c>
       <c r="F12">
-        <v>22.78399502166691</v>
+        <v>22.59993521666243</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.286150823998107</v>
       </c>
       <c r="I12">
-        <v>13.67828435711969</v>
+        <v>2.783184950294169</v>
       </c>
       <c r="J12">
-        <v>5.749521556521471</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.59109097432109</v>
       </c>
       <c r="L12">
-        <v>7.621899290994441</v>
+        <v>5.814744808137335</v>
       </c>
       <c r="M12">
-        <v>15.84568508721507</v>
+        <v>14.02722160162783</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.53619526938747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.00276411898989</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>16.15794420812479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.28100615292657</v>
+        <v>15.77215618410494</v>
       </c>
       <c r="C13">
-        <v>15.82535263499619</v>
+        <v>9.333650021616137</v>
       </c>
       <c r="D13">
-        <v>5.214156825936981</v>
+        <v>6.342603941042804</v>
       </c>
       <c r="E13">
-        <v>7.017501456649455</v>
+        <v>7.307165521880507</v>
       </c>
       <c r="F13">
-        <v>22.76931415943468</v>
+        <v>21.44546848121368</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.687779648431233</v>
       </c>
       <c r="I13">
-        <v>13.69363967299519</v>
+        <v>2.8109612310773</v>
       </c>
       <c r="J13">
-        <v>5.752555529011529</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.19555234520285</v>
       </c>
       <c r="L13">
-        <v>7.613443446974396</v>
+        <v>5.626282259489383</v>
       </c>
       <c r="M13">
-        <v>15.81062491211812</v>
+        <v>14.03153183223879</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.53121639837802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.30362106704486</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15.56386581448164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.04024125658338</v>
+        <v>15.72038011305441</v>
       </c>
       <c r="C14">
-        <v>15.7076178969242</v>
+        <v>9.204225448255222</v>
       </c>
       <c r="D14">
-        <v>5.200230622913534</v>
+        <v>5.954574452683536</v>
       </c>
       <c r="E14">
-        <v>7.033215294392189</v>
+        <v>6.746650973328641</v>
       </c>
       <c r="F14">
-        <v>22.72222282075924</v>
+        <v>20.64121626666617</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.687573810030181</v>
       </c>
       <c r="I14">
-        <v>13.74421175227402</v>
+        <v>2.852330626780981</v>
       </c>
       <c r="J14">
-        <v>5.76247027117802</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.96134762401355</v>
       </c>
       <c r="L14">
-        <v>7.585870990669622</v>
+        <v>5.577066387399746</v>
       </c>
       <c r="M14">
-        <v>15.6958474723662</v>
+        <v>13.95241956485819</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.51562317885157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.75460644254793</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>15.17271329583363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.89180092809693</v>
+        <v>15.6565081657067</v>
       </c>
       <c r="C15">
-        <v>15.63510196271311</v>
+        <v>9.155435529793499</v>
       </c>
       <c r="D15">
-        <v>5.19171420956197</v>
+        <v>5.849490419058811</v>
       </c>
       <c r="E15">
-        <v>7.042874513544054</v>
+        <v>6.626873506488996</v>
       </c>
       <c r="F15">
-        <v>22.69397910433328</v>
+        <v>20.44016010383255</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.92157105055537</v>
       </c>
       <c r="I15">
-        <v>13.77556421239461</v>
+        <v>2.876193733933568</v>
       </c>
       <c r="J15">
-        <v>5.768559038080902</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.91667197210659</v>
       </c>
       <c r="L15">
-        <v>7.568985444179109</v>
+        <v>5.575250293091629</v>
       </c>
       <c r="M15">
-        <v>15.62520679667042</v>
+        <v>13.89476690203242</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.50656306705347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.59690576943931</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>15.08302331444021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.02629491746252</v>
+        <v>15.17713653432997</v>
       </c>
       <c r="C16">
-        <v>15.21342205953303</v>
+        <v>8.90695054038529</v>
       </c>
       <c r="D16">
-        <v>5.143127385099008</v>
+        <v>5.748478012941286</v>
       </c>
       <c r="E16">
-        <v>7.098752684361433</v>
+        <v>6.6185235960313</v>
       </c>
       <c r="F16">
-        <v>22.54121258580675</v>
+        <v>20.47926931399762</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.733711877139966</v>
       </c>
       <c r="I16">
-        <v>13.96079742383371</v>
+        <v>2.975081364146133</v>
       </c>
       <c r="J16">
-        <v>5.803696158905885</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.06962656713479</v>
       </c>
       <c r="L16">
-        <v>7.472289520930274</v>
+        <v>5.563420898769744</v>
       </c>
       <c r="M16">
-        <v>15.21527854730925</v>
+        <v>13.50654082905929</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.46202025639029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.38471147923876</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>15.19196930335686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48200955830965</v>
+        <v>14.82916351606609</v>
       </c>
       <c r="C17">
-        <v>14.94928848266282</v>
+        <v>8.785957410369981</v>
       </c>
       <c r="D17">
-        <v>5.113521470145791</v>
+        <v>5.88432162189729</v>
       </c>
       <c r="E17">
-        <v>7.133504318207495</v>
+        <v>6.888437944701437</v>
       </c>
       <c r="F17">
-        <v>22.45546270811055</v>
+        <v>20.93500265896078</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.03037623604063</v>
       </c>
       <c r="I17">
-        <v>14.0791982794197</v>
+        <v>3.029865684515691</v>
       </c>
       <c r="J17">
-        <v>5.825474625099647</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.30664797948337</v>
       </c>
       <c r="L17">
-        <v>7.413049185152502</v>
+        <v>5.56723005313721</v>
       </c>
       <c r="M17">
-        <v>14.95928198560771</v>
+        <v>13.2466275437576</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.44111125568664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.52396201264292</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15.48007464535725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.16402629852983</v>
+        <v>14.56825153106612</v>
       </c>
       <c r="C18">
-        <v>14.79537144411137</v>
+        <v>8.742385758448123</v>
       </c>
       <c r="D18">
-        <v>5.096569307396033</v>
+        <v>6.237158650594841</v>
       </c>
       <c r="E18">
-        <v>7.153667503877885</v>
+        <v>7.549355205655073</v>
       </c>
       <c r="F18">
-        <v>22.40901227834838</v>
+        <v>21.83119587363628</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.838440518284971</v>
       </c>
       <c r="I18">
-        <v>14.14897558464991</v>
+        <v>3.04111540572382</v>
       </c>
       <c r="J18">
-        <v>5.838084713241794</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.66828757362386</v>
       </c>
       <c r="L18">
-        <v>7.379012481954793</v>
+        <v>5.66161713157623</v>
       </c>
       <c r="M18">
-        <v>14.81039884653147</v>
+        <v>13.0696840812535</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.43137666144381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.97930385082603</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15.97660036582709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.05551420951607</v>
+        <v>14.38926298200955</v>
       </c>
       <c r="C19">
-        <v>14.74291606051931</v>
+        <v>8.814461669378863</v>
       </c>
       <c r="D19">
-        <v>5.090842973111208</v>
+        <v>6.747537850745411</v>
       </c>
       <c r="E19">
-        <v>7.160524598498143</v>
+        <v>8.603806052359595</v>
       </c>
       <c r="F19">
-        <v>22.39377241124459</v>
+        <v>22.98920053049677</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.462245191287043</v>
       </c>
       <c r="I19">
-        <v>14.17288207204374</v>
+        <v>3.033476652643627</v>
       </c>
       <c r="J19">
-        <v>5.842368808868789</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.09454695610851</v>
       </c>
       <c r="L19">
-        <v>7.367495291259791</v>
+        <v>5.925514588793506</v>
       </c>
       <c r="M19">
-        <v>14.75970987003744</v>
+        <v>12.98481202249465</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.42846796162424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.65636845435985</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>16.58569903581984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54045873448165</v>
+        <v>14.4773613271061</v>
       </c>
       <c r="C20">
-        <v>14.97761255078684</v>
+        <v>9.115021788064528</v>
       </c>
       <c r="D20">
-        <v>5.116665226972946</v>
+        <v>7.635547161145337</v>
       </c>
       <c r="E20">
-        <v>7.129786871607021</v>
+        <v>10.53435046359323</v>
       </c>
       <c r="F20">
-        <v>22.46429251111262</v>
+        <v>24.89834163530281</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.104572508489101</v>
       </c>
       <c r="I20">
-        <v>14.06641917989424</v>
+        <v>2.938849815499839</v>
       </c>
       <c r="J20">
-        <v>5.823147647386791</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.7338138437927</v>
       </c>
       <c r="L20">
-        <v>7.419351788312123</v>
+        <v>6.590273997749967</v>
       </c>
       <c r="M20">
-        <v>14.9867035450086</v>
+        <v>13.14810592501327</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.44309836732307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.88455204712192</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17.54197772115655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.11116066445465</v>
+        <v>15.29672896607995</v>
       </c>
       <c r="C21">
-        <v>15.74228282600401</v>
+        <v>9.620999266385375</v>
       </c>
       <c r="D21">
-        <v>5.20431822694851</v>
+        <v>8.058186594726154</v>
       </c>
       <c r="E21">
-        <v>7.028592673513989</v>
+        <v>11.09459636226056</v>
       </c>
       <c r="F21">
-        <v>22.73592912476045</v>
+        <v>25.48782397493584</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.830614473661988</v>
       </c>
       <c r="I21">
-        <v>13.72927875938406</v>
+        <v>2.754319972239309</v>
       </c>
       <c r="J21">
-        <v>5.759554809168973</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.71509486495184</v>
       </c>
       <c r="L21">
-        <v>7.593969024041153</v>
+        <v>6.773411596151248</v>
       </c>
       <c r="M21">
-        <v>15.72963053248026</v>
+        <v>13.83895394272978</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.52010056206794</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>13.58627263432045</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.70810088438292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09444472245066</v>
+        <v>15.82363627002554</v>
       </c>
       <c r="C22">
-        <v>16.2241526044455</v>
+        <v>9.905752951459828</v>
       </c>
       <c r="D22">
-        <v>5.262228807616577</v>
+        <v>8.283006445068482</v>
       </c>
       <c r="E22">
-        <v>6.963983833662319</v>
+        <v>11.36044525639303</v>
       </c>
       <c r="F22">
-        <v>22.94021083161245</v>
+        <v>25.82174148744398</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.669569274268244</v>
       </c>
       <c r="I22">
-        <v>13.52554082705466</v>
+        <v>2.626403982832288</v>
       </c>
       <c r="J22">
-        <v>5.718700700474646</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.69805067627128</v>
       </c>
       <c r="L22">
-        <v>7.708262751341313</v>
+        <v>6.856871017596311</v>
       </c>
       <c r="M22">
-        <v>16.20017986976922</v>
+        <v>14.2700896103503</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.59223234270809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.97703826426569</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.80121177625264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57357660319485</v>
+        <v>15.55196312912173</v>
       </c>
       <c r="C23">
-        <v>15.96861023679119</v>
+        <v>9.726605168641795</v>
       </c>
       <c r="D23">
-        <v>5.231266320674995</v>
+        <v>8.156906115357213</v>
       </c>
       <c r="E23">
-        <v>6.998328516098671</v>
+        <v>11.21796787651505</v>
       </c>
       <c r="F23">
-        <v>22.82867898416383</v>
+        <v>25.67369256035661</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.7545373036566</v>
       </c>
       <c r="I23">
-        <v>13.6326729311002</v>
+        <v>2.682271053464972</v>
       </c>
       <c r="J23">
-        <v>5.740442457404808</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.72990012734263</v>
       </c>
       <c r="L23">
-        <v>7.647253546484456</v>
+        <v>6.813963769188117</v>
       </c>
       <c r="M23">
-        <v>15.95042665260297</v>
+        <v>14.03675144959678</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.5516721887431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.76500144019438</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.77421592675966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51404964902073</v>
+        <v>14.46338840475447</v>
       </c>
       <c r="C24">
-        <v>14.96481366407244</v>
+        <v>9.071762108507416</v>
       </c>
       <c r="D24">
-        <v>5.11524371997943</v>
+        <v>7.675129933128357</v>
       </c>
       <c r="E24">
-        <v>7.131466955730832</v>
+        <v>10.66478755205396</v>
       </c>
       <c r="F24">
-        <v>22.46029169882479</v>
+        <v>25.0725735513487</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.084492289423384</v>
       </c>
       <c r="I24">
-        <v>14.07219131137634</v>
+        <v>2.920030735421491</v>
       </c>
       <c r="J24">
-        <v>5.824199395269804</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.82235480983911</v>
       </c>
       <c r="L24">
-        <v>7.416502313123329</v>
+        <v>6.645761420845371</v>
       </c>
       <c r="M24">
-        <v>14.97431157118103</v>
+        <v>13.12508712512079</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.44219288858393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.94180392253069</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17.64760559279828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.10389979740911</v>
+        <v>13.18638555543887</v>
       </c>
       <c r="C25">
-        <v>13.80599751795125</v>
+        <v>8.320000631889659</v>
       </c>
       <c r="D25">
-        <v>4.993050902404947</v>
+        <v>7.124481650502366</v>
       </c>
       <c r="E25">
-        <v>7.281785816655849</v>
+        <v>10.0360128152868</v>
       </c>
       <c r="F25">
-        <v>22.17184621203872</v>
+        <v>24.44514622165471</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.456202627779793</v>
       </c>
       <c r="I25">
-        <v>14.60965831736776</v>
+        <v>3.19034522902389</v>
       </c>
       <c r="J25">
-        <v>5.917764606491391</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.94193057528881</v>
       </c>
       <c r="L25">
-        <v>7.169113629962156</v>
+        <v>6.45749984892828</v>
       </c>
       <c r="M25">
-        <v>13.85908032545627</v>
+        <v>12.06589695051094</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.41085092275269</v>
+        <v>11.99651702901213</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>17.5388994832282</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.17919970398817</v>
+        <v>12.17547893169317</v>
       </c>
       <c r="C2">
-        <v>7.6450872120569</v>
+        <v>7.921646572421779</v>
       </c>
       <c r="D2">
-        <v>6.674384681063009</v>
+        <v>6.862221909416228</v>
       </c>
       <c r="E2">
-        <v>9.543696493707897</v>
+        <v>9.665482013292188</v>
       </c>
       <c r="F2">
-        <v>24.0822575297285</v>
+        <v>23.3430956958149</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.742279983436645</v>
+        <v>2.651501481397738</v>
       </c>
       <c r="I2">
-        <v>3.375569652109835</v>
+        <v>3.195309084462609</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>16.10274945261085</v>
+        <v>15.34066151155928</v>
       </c>
       <c r="L2">
-        <v>6.317265572741322</v>
+        <v>12.50414174761119</v>
       </c>
       <c r="M2">
-        <v>11.20761772690741</v>
+        <v>10.16623253636807</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.335227351086028</v>
       </c>
       <c r="O2">
-        <v>11.23979454104226</v>
+        <v>11.32631013164983</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>17.53998605607118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.3496740766269</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.91044845593336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.42951221745867</v>
+        <v>11.45942643836993</v>
       </c>
       <c r="C3">
-        <v>7.208000547123487</v>
+        <v>7.378599319069533</v>
       </c>
       <c r="D3">
-        <v>6.365438648884812</v>
+        <v>6.540491845824818</v>
       </c>
       <c r="E3">
-        <v>9.197012627260397</v>
+        <v>9.323416330311234</v>
       </c>
       <c r="F3">
-        <v>23.80358304771299</v>
+        <v>23.13141081586779</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.946451431337531</v>
+        <v>2.848157062423953</v>
       </c>
       <c r="I3">
-        <v>3.52279569194403</v>
+        <v>3.327186882079341</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>16.18802159178536</v>
+        <v>15.46364600345038</v>
       </c>
       <c r="L3">
-        <v>6.216595193139486</v>
+        <v>12.66071870957156</v>
       </c>
       <c r="M3">
-        <v>10.59406493477</v>
+        <v>10.22792263269411</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.241694765093343</v>
       </c>
       <c r="O3">
-        <v>10.7069503220164</v>
+        <v>10.70004173632068</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.52022605116515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.80413663116629</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.93749020311874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.94154707848112</v>
+        <v>10.9939153264931</v>
       </c>
       <c r="C4">
-        <v>6.929447209273041</v>
+        <v>7.030634755447062</v>
       </c>
       <c r="D4">
-        <v>6.169407061425593</v>
+        <v>6.336589275762389</v>
       </c>
       <c r="E4">
-        <v>8.97728167108145</v>
+        <v>9.106934808216955</v>
       </c>
       <c r="F4">
-        <v>23.63725087519644</v>
+        <v>23.00573898556878</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.076521990076788</v>
+        <v>2.973471245055297</v>
       </c>
       <c r="I4">
-        <v>3.617201038523436</v>
+        <v>3.412042927974031</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>16.24363630595211</v>
+        <v>15.54142933076247</v>
       </c>
       <c r="L4">
-        <v>6.153083893321005</v>
+        <v>12.75857568004842</v>
       </c>
       <c r="M4">
-        <v>10.19850136618046</v>
+        <v>10.28192891913281</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.182701301312476</v>
       </c>
       <c r="O4">
-        <v>10.36724374398408</v>
+        <v>10.2963477847439</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.51318730901236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.4562429625894</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.95841415969066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.73316951162347</v>
+        <v>10.79527390738612</v>
       </c>
       <c r="C5">
-        <v>6.823056007345094</v>
+        <v>6.895215375715963</v>
       </c>
       <c r="D5">
-        <v>6.090266943272399</v>
+        <v>6.254149794536444</v>
       </c>
       <c r="E5">
-        <v>8.88646994318901</v>
+        <v>9.017533468302503</v>
       </c>
       <c r="F5">
-        <v>23.5620696569395</v>
+        <v>22.94735648821623</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.130949078547389</v>
+        <v>3.025915973599014</v>
       </c>
       <c r="I5">
-        <v>3.659288550007997</v>
+        <v>3.450665854643159</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>16.26107369693413</v>
+        <v>15.56810006888603</v>
       </c>
       <c r="L5">
-        <v>6.126332381992783</v>
+        <v>12.79346588548285</v>
       </c>
       <c r="M5">
-        <v>10.03424714502343</v>
+        <v>10.30496536644945</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.157843283662703</v>
       </c>
       <c r="O5">
-        <v>10.22740614023019</v>
+        <v>10.12865405124387</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17.50532306502236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.31291819306778</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.96206975913961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.69497482027133</v>
+        <v>10.75886470421706</v>
       </c>
       <c r="C6">
-        <v>6.817047880616438</v>
+        <v>6.884754221675177</v>
       </c>
       <c r="D6">
-        <v>6.079794785097305</v>
+        <v>6.243008471190448</v>
       </c>
       <c r="E6">
-        <v>8.87175534102194</v>
+        <v>9.003033617200346</v>
       </c>
       <c r="F6">
-        <v>23.5391060710927</v>
+        <v>22.92763545743927</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.140331915862861</v>
+        <v>3.034958249977834</v>
       </c>
       <c r="I6">
-        <v>3.669669809830128</v>
+        <v>3.461075983117298</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>16.25665704983988</v>
+        <v>15.56574414177761</v>
       </c>
       <c r="L6">
-        <v>6.121313364750963</v>
+        <v>12.79267332268627</v>
       </c>
       <c r="M6">
-        <v>10.00865721585856</v>
+        <v>10.3053951263939</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.15316471767273</v>
       </c>
       <c r="O6">
-        <v>10.20597807588192</v>
+        <v>10.10242179211068</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17.49645755734197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.29083292941691</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.95550388320812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.93028471536271</v>
+        <v>10.98315118318978</v>
       </c>
       <c r="C7">
-        <v>6.959615426781604</v>
+        <v>7.061515544007935</v>
       </c>
       <c r="D7">
-        <v>6.175749514994129</v>
+        <v>6.342563589734908</v>
       </c>
       <c r="E7">
-        <v>8.977316414694513</v>
+        <v>9.10691947332386</v>
       </c>
       <c r="F7">
-        <v>23.60756036637999</v>
+        <v>22.97756042090856</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.077981386125095</v>
+        <v>2.974878505967514</v>
       </c>
       <c r="I7">
-        <v>3.626573616633622</v>
+        <v>3.42295912833134</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>16.22379068782273</v>
+        <v>15.5232553064298</v>
       </c>
       <c r="L7">
-        <v>6.151235395389294</v>
+        <v>12.74149766497559</v>
       </c>
       <c r="M7">
-        <v>10.20157804874682</v>
+        <v>10.27182934794347</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.180944071994606</v>
       </c>
       <c r="O7">
-        <v>10.37064922454765</v>
+        <v>10.29919984164727</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.49228226628198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.45940619960761</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.93878580266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.91605595151254</v>
+        <v>11.92400744222936</v>
       </c>
       <c r="C8">
-        <v>7.535543819819783</v>
+        <v>7.77756764085508</v>
       </c>
       <c r="D8">
-        <v>6.578463955189032</v>
+        <v>6.761517646842691</v>
       </c>
       <c r="E8">
-        <v>9.427251684514587</v>
+        <v>9.550465396021291</v>
       </c>
       <c r="F8">
-        <v>23.94802264496544</v>
+        <v>23.23379888066453</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.812616525854858</v>
+        <v>2.719238906129161</v>
       </c>
       <c r="I8">
-        <v>3.436706307938966</v>
+        <v>3.253215792358079</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>16.10504257099272</v>
+        <v>15.35847286128606</v>
       </c>
       <c r="L8">
-        <v>6.281020298663602</v>
+        <v>12.5367078640554</v>
       </c>
       <c r="M8">
-        <v>11.00660013276705</v>
+        <v>10.16849734471516</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.301501527535273</v>
       </c>
       <c r="O8">
-        <v>11.06530223891409</v>
+        <v>11.12076461034394</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17.50486688396215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.17064707982426</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.89321568637997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.64283477983813</v>
+        <v>13.57574359831031</v>
       </c>
       <c r="C9">
-        <v>8.531875972363579</v>
+        <v>9.013263873578305</v>
       </c>
       <c r="D9">
-        <v>7.302616774451185</v>
+        <v>7.517337091984203</v>
       </c>
       <c r="E9">
-        <v>10.24986334604487</v>
+        <v>10.36377273241683</v>
       </c>
       <c r="F9">
-        <v>24.70209039926629</v>
+        <v>23.81788355479447</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.327706040732189</v>
+        <v>2.252376760427137</v>
       </c>
       <c r="I9">
-        <v>3.081354568129595</v>
+        <v>2.933833584074446</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>15.93461659693658</v>
+        <v>15.0863999143925</v>
       </c>
       <c r="L9">
-        <v>6.524211138628111</v>
+        <v>12.17601210598518</v>
       </c>
       <c r="M9">
-        <v>12.42465532662285</v>
+        <v>10.11796190742065</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.527600637799375</v>
       </c>
       <c r="O9">
-        <v>12.31441364699826</v>
+        <v>12.56862651508504</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.60813970515114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.44921611590271</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.87440775337902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.78914494256238</v>
+        <v>14.67718005381415</v>
       </c>
       <c r="C10">
-        <v>9.212410200671721</v>
+        <v>9.838413822372969</v>
       </c>
       <c r="D10">
-        <v>7.730142550271774</v>
+        <v>7.964410864680493</v>
       </c>
       <c r="E10">
-        <v>10.63941343033542</v>
+        <v>10.74796648423874</v>
       </c>
       <c r="F10">
-        <v>25.09233184428735</v>
+        <v>24.09788492446884</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.025024210002045</v>
+        <v>1.96243643330565</v>
       </c>
       <c r="I10">
-        <v>2.8485792201709</v>
+        <v>2.727692989863092</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>15.75064440104394</v>
+        <v>14.8363148402117</v>
       </c>
       <c r="L10">
-        <v>6.622971872722038</v>
+        <v>11.87456383586157</v>
       </c>
       <c r="M10">
-        <v>13.37829052919496</v>
+        <v>10.11019116939129</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.615975912963074</v>
       </c>
       <c r="O10">
-        <v>13.06981896041414</v>
+        <v>13.54015441489583</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.61061574905274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.22186411027211</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.79596677931421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.40208808681017</v>
+        <v>15.2943153464382</v>
       </c>
       <c r="C11">
-        <v>9.435821647878743</v>
+        <v>10.02804603583695</v>
       </c>
       <c r="D11">
-        <v>7.311467687630993</v>
+        <v>7.531390061675427</v>
       </c>
       <c r="E11">
-        <v>9.346302735162549</v>
+        <v>9.450634573262274</v>
       </c>
       <c r="F11">
-        <v>23.76420049161993</v>
+        <v>22.83962240520232</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.951168439577131</v>
+        <v>2.910429360434517</v>
       </c>
       <c r="I11">
-        <v>2.797560812149908</v>
+        <v>2.688188917614381</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>15.07609429343989</v>
+        <v>14.2454351807721</v>
       </c>
       <c r="L11">
-        <v>6.131629002835166</v>
+        <v>11.41722847960867</v>
       </c>
       <c r="M11">
-        <v>13.8380364500998</v>
+        <v>9.709724463752693</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.132400132983038</v>
       </c>
       <c r="O11">
-        <v>12.584433075027</v>
+        <v>13.99183408786949</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.80498427504697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.72675321395267</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>16.0515660462159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.69967323337603</v>
+        <v>15.60430945889592</v>
       </c>
       <c r="C12">
-        <v>9.446930196188005</v>
+        <v>9.979749045634533</v>
       </c>
       <c r="D12">
-        <v>6.855824422469802</v>
+        <v>7.059681287853284</v>
       </c>
       <c r="E12">
-        <v>8.263743808255851</v>
+        <v>8.365292870292054</v>
       </c>
       <c r="F12">
-        <v>22.59993521666243</v>
+        <v>21.75615327765522</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.286150823998107</v>
+        <v>4.257792532209697</v>
       </c>
       <c r="I12">
-        <v>2.783184950294169</v>
+        <v>2.675134833322514</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>14.59109097432109</v>
+        <v>13.84103911552985</v>
       </c>
       <c r="L12">
-        <v>5.814744808137335</v>
+        <v>11.13595673671087</v>
       </c>
       <c r="M12">
-        <v>14.02722160162783</v>
+        <v>9.391440395470909</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.824088147659535</v>
       </c>
       <c r="O12">
-        <v>12.00276411898989</v>
+        <v>14.17035923612064</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.15794420812479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.13345475320503</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>15.47149761250891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.77215618410494</v>
+        <v>15.69678599449136</v>
       </c>
       <c r="C13">
-        <v>9.333650021616137</v>
+        <v>9.78249959229011</v>
       </c>
       <c r="D13">
-        <v>6.342603941042804</v>
+        <v>6.527600978553054</v>
       </c>
       <c r="E13">
-        <v>7.307165521880507</v>
+        <v>7.407121857479004</v>
       </c>
       <c r="F13">
-        <v>21.44546848121368</v>
+        <v>20.6980294616431</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.687779648431233</v>
+        <v>5.665032272705065</v>
       </c>
       <c r="I13">
-        <v>2.8109612310773</v>
+        <v>2.699322962179255</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>14.19555234520285</v>
+        <v>13.52964876685711</v>
       </c>
       <c r="L13">
-        <v>5.626282259489383</v>
+        <v>10.94022600301809</v>
       </c>
       <c r="M13">
-        <v>14.03153183223879</v>
+        <v>9.103544053732724</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.644696611786439</v>
       </c>
       <c r="O13">
-        <v>11.30362106704486</v>
+        <v>14.16090209889236</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.56386581448164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.41993727820982</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.95425521587751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.72038011305441</v>
+        <v>15.66273139394329</v>
       </c>
       <c r="C14">
-        <v>9.204225448255222</v>
+        <v>9.581922944968358</v>
       </c>
       <c r="D14">
-        <v>5.954574452683536</v>
+        <v>6.125050965127673</v>
       </c>
       <c r="E14">
-        <v>6.746650973328641</v>
+        <v>6.845930039105358</v>
       </c>
       <c r="F14">
-        <v>20.64121626666617</v>
+        <v>19.96792648508985</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.687573810030181</v>
+        <v>6.666963599551647</v>
       </c>
       <c r="I14">
-        <v>2.852330626780981</v>
+        <v>2.73659509507974</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>13.96134762401355</v>
+        <v>13.35432660884828</v>
       </c>
       <c r="L14">
-        <v>5.577066387399746</v>
+        <v>10.83664855824922</v>
       </c>
       <c r="M14">
-        <v>13.95241956485819</v>
+        <v>8.921573333017996</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.601392325052144</v>
       </c>
       <c r="O14">
-        <v>10.75460644254793</v>
+        <v>14.07049062799662</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.17271329583363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.85939064103787</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.62059129828809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.6565081657067</v>
+        <v>15.60493853526814</v>
       </c>
       <c r="C15">
-        <v>9.155435529793499</v>
+        <v>9.510336850020193</v>
       </c>
       <c r="D15">
-        <v>5.849490419058811</v>
+        <v>6.015800919497454</v>
       </c>
       <c r="E15">
-        <v>6.626873506488996</v>
+        <v>6.726402280388193</v>
       </c>
       <c r="F15">
-        <v>20.44016010383255</v>
+        <v>19.78837508387119</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.92157105055537</v>
+        <v>6.901088120718462</v>
       </c>
       <c r="I15">
-        <v>2.876193733933568</v>
+        <v>2.759218743853065</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>13.91667197210659</v>
+        <v>13.32504201607423</v>
       </c>
       <c r="L15">
-        <v>5.575250293091629</v>
+        <v>10.82147621447479</v>
       </c>
       <c r="M15">
-        <v>13.89476690203242</v>
+        <v>8.882349914450241</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.601081793757492</v>
       </c>
       <c r="O15">
-        <v>10.59690576943931</v>
+        <v>14.00936181165349</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.08302331444021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.69820608717793</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.54711758571043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17713653432997</v>
+        <v>15.14089435400748</v>
       </c>
       <c r="C16">
-        <v>8.90695054038529</v>
+        <v>9.213190784348582</v>
       </c>
       <c r="D16">
-        <v>5.748478012941286</v>
+        <v>5.909966930667499</v>
       </c>
       <c r="E16">
-        <v>6.6185235960313</v>
+        <v>6.723195551211443</v>
       </c>
       <c r="F16">
-        <v>20.47926931399762</v>
+        <v>19.8553011544676</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.733711877139966</v>
+        <v>6.709740462243658</v>
       </c>
       <c r="I16">
-        <v>2.975081364146133</v>
+        <v>2.848513165516219</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>14.06962656713479</v>
+        <v>13.48475315803415</v>
       </c>
       <c r="L16">
-        <v>5.563420898769744</v>
+        <v>10.94085038383891</v>
       </c>
       <c r="M16">
-        <v>13.50654082905929</v>
+        <v>8.961552276982902</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.591362832413072</v>
       </c>
       <c r="O16">
-        <v>10.38471147923876</v>
+        <v>13.61551057400055</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.19196930335686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.48068697143388</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.67369350759975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.82916351606609</v>
+        <v>14.79516502876235</v>
       </c>
       <c r="C17">
-        <v>8.785957410369981</v>
+        <v>9.094060625946582</v>
       </c>
       <c r="D17">
-        <v>5.88432162189729</v>
+        <v>6.049815455880571</v>
       </c>
       <c r="E17">
-        <v>6.888437944701437</v>
+        <v>6.996986493781727</v>
       </c>
       <c r="F17">
-        <v>20.93500265896078</v>
+        <v>20.29356033591834</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.03037623604063</v>
+        <v>6.001798187043298</v>
       </c>
       <c r="I17">
-        <v>3.029865684515691</v>
+        <v>2.898210358169614</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>14.30664797948337</v>
+        <v>13.69775371802265</v>
       </c>
       <c r="L17">
-        <v>5.56723005313721</v>
+        <v>11.09546077312221</v>
       </c>
       <c r="M17">
-        <v>13.2466275437576</v>
+        <v>9.110643436789651</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.594112577777545</v>
       </c>
       <c r="O17">
-        <v>10.52396201264292</v>
+        <v>13.35752056287652</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.48007464535725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.62218630743485</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.94575169164047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.56825153106612</v>
+        <v>14.52498069612115</v>
       </c>
       <c r="C18">
-        <v>8.742385758448123</v>
+        <v>9.09669421528519</v>
       </c>
       <c r="D18">
-        <v>6.237158650594841</v>
+        <v>6.414962360490171</v>
       </c>
       <c r="E18">
-        <v>7.549355205655073</v>
+        <v>7.659935296316142</v>
       </c>
       <c r="F18">
-        <v>21.83119587363628</v>
+        <v>21.12977260006559</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.838440518284971</v>
+        <v>4.802342300454816</v>
       </c>
       <c r="I18">
-        <v>3.04111540572382</v>
+        <v>2.905942485498478</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>14.66828757362386</v>
+        <v>14.00319269194868</v>
       </c>
       <c r="L18">
-        <v>5.66161713157623</v>
+        <v>11.31913917716708</v>
       </c>
       <c r="M18">
-        <v>13.0696840812535</v>
+        <v>9.344750533102607</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.683611958070642</v>
       </c>
       <c r="O18">
-        <v>10.97930385082603</v>
+        <v>13.18932640183303</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.97660036582709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.0867948860889</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15.39385747497185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.38926298200955</v>
+        <v>14.32874989250971</v>
       </c>
       <c r="C19">
-        <v>8.814461669378863</v>
+        <v>9.246578549721125</v>
       </c>
       <c r="D19">
-        <v>6.747537850745411</v>
+        <v>6.943095156439215</v>
       </c>
       <c r="E19">
-        <v>8.603806052359595</v>
+        <v>8.714580634296262</v>
       </c>
       <c r="F19">
-        <v>22.98920053049677</v>
+        <v>22.19876865041551</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.462245191287043</v>
+        <v>3.413696699170296</v>
       </c>
       <c r="I19">
-        <v>3.033476652643627</v>
+        <v>2.900567541679069</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>15.09454695610851</v>
+        <v>14.35102123084879</v>
       </c>
       <c r="L19">
-        <v>5.925514588793506</v>
+        <v>11.57496073811265</v>
       </c>
       <c r="M19">
-        <v>12.98481202249465</v>
+        <v>9.620203222360168</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.938863923314218</v>
       </c>
       <c r="O19">
-        <v>11.65636845435985</v>
+        <v>13.11743031253964</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.58569903581984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.7776749911575</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.93220901978052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.4773613271061</v>
+        <v>14.37767745812357</v>
       </c>
       <c r="C20">
-        <v>9.115021788064528</v>
+        <v>9.704879646917234</v>
       </c>
       <c r="D20">
-        <v>7.635547161145337</v>
+        <v>7.863901102811889</v>
       </c>
       <c r="E20">
-        <v>10.53435046359323</v>
+        <v>10.64409905635716</v>
       </c>
       <c r="F20">
-        <v>24.89834163530281</v>
+        <v>23.93748375781806</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.104572508489101</v>
+        <v>2.038518976803186</v>
       </c>
       <c r="I20">
-        <v>2.938849815499839</v>
+        <v>2.816919888492551</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>15.7338138437927</v>
+        <v>14.84415659679263</v>
       </c>
       <c r="L20">
-        <v>6.590273997749967</v>
+        <v>11.91164692902706</v>
       </c>
       <c r="M20">
-        <v>13.14810592501327</v>
+        <v>10.06090434036899</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.586220122064157</v>
       </c>
       <c r="O20">
-        <v>12.88455204712192</v>
+        <v>13.30491268638182</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.54197772115655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.0316293656792</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.75323673049781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.29672896607995</v>
+        <v>15.16044809742921</v>
       </c>
       <c r="C21">
-        <v>9.620999266385375</v>
+        <v>10.33238240160213</v>
       </c>
       <c r="D21">
-        <v>8.058186594726154</v>
+        <v>8.305358575562249</v>
       </c>
       <c r="E21">
-        <v>11.09459636226056</v>
+        <v>11.20098297848927</v>
       </c>
       <c r="F21">
-        <v>25.48782397493584</v>
+        <v>24.42099356652694</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.830614473661988</v>
+        <v>1.774133645597388</v>
       </c>
       <c r="I21">
-        <v>2.754319972239309</v>
+        <v>2.652558233889946</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>15.71509486495184</v>
+        <v>14.75192901791973</v>
       </c>
       <c r="L21">
-        <v>6.773411596151248</v>
+        <v>11.75379346423409</v>
       </c>
       <c r="M21">
-        <v>13.83895394272978</v>
+        <v>10.15647284381712</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.759419444249598</v>
       </c>
       <c r="O21">
-        <v>13.58627263432045</v>
+        <v>14.01161725599656</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.70810088438292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.74896165059807</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.83842270346004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.82363627002554</v>
+        <v>15.66567170071672</v>
       </c>
       <c r="C22">
-        <v>9.905752951459828</v>
+        <v>10.68697906412805</v>
       </c>
       <c r="D22">
-        <v>8.283006445068482</v>
+        <v>8.541119838591678</v>
       </c>
       <c r="E22">
-        <v>11.36044525639303</v>
+        <v>11.4648600310742</v>
       </c>
       <c r="F22">
-        <v>25.82174148744398</v>
+        <v>24.69153846995415</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.669569274268244</v>
+        <v>1.619308395004671</v>
       </c>
       <c r="I22">
-        <v>2.626403982832288</v>
+        <v>2.535022314900314</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>15.69805067627128</v>
+        <v>14.68943891354821</v>
       </c>
       <c r="L22">
-        <v>6.856871017596311</v>
+        <v>11.64671696122996</v>
       </c>
       <c r="M22">
-        <v>14.2700896103503</v>
+        <v>10.23130188493138</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.837165217053295</v>
       </c>
       <c r="O22">
-        <v>13.97703826426569</v>
+        <v>14.45188393725045</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.80121177625264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.14862349047527</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.88229459598726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.55196312912173</v>
+        <v>15.40517089028355</v>
       </c>
       <c r="C23">
-        <v>9.726605168641795</v>
+        <v>10.47059165566082</v>
       </c>
       <c r="D23">
-        <v>8.156906115357213</v>
+        <v>8.409472793882799</v>
       </c>
       <c r="E23">
-        <v>11.21796787651505</v>
+        <v>11.323461161724</v>
       </c>
       <c r="F23">
-        <v>25.67369256035661</v>
+        <v>24.57571859681421</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.7545373036566</v>
+        <v>1.701003054010381</v>
       </c>
       <c r="I23">
-        <v>2.682271053464972</v>
+        <v>2.582943668682279</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>15.72990012734263</v>
+        <v>14.74310937139682</v>
       </c>
       <c r="L23">
-        <v>6.813963769188117</v>
+        <v>11.71749046932315</v>
       </c>
       <c r="M23">
-        <v>14.03675144959678</v>
+        <v>10.20770079277248</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.797218383748644</v>
       </c>
       <c r="O23">
-        <v>13.76500144019438</v>
+        <v>14.21386577635799</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.77421592675966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.93206445408792</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.88008468002563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.46338840475447</v>
+        <v>14.36172410597076</v>
       </c>
       <c r="C24">
-        <v>9.071762108507416</v>
+        <v>9.66794811312098</v>
       </c>
       <c r="D24">
-        <v>7.675129933128357</v>
+        <v>7.905690406846151</v>
       </c>
       <c r="E24">
-        <v>10.66478755205396</v>
+        <v>10.77477914882468</v>
       </c>
       <c r="F24">
-        <v>25.0725735513487</v>
+        <v>24.10022002065667</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.084492289423384</v>
+        <v>2.018337616807002</v>
       </c>
       <c r="I24">
-        <v>2.920030735421491</v>
+        <v>2.794459131600996</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>15.82235480983911</v>
+        <v>14.91999175727351</v>
       </c>
       <c r="L24">
-        <v>6.645761420845371</v>
+        <v>11.9678128255563</v>
       </c>
       <c r="M24">
-        <v>13.12508712512079</v>
+        <v>10.1201517673355</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.640639128424997</v>
       </c>
       <c r="O24">
-        <v>12.94180392253069</v>
+        <v>13.28330669523582</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.64760559279828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.09048959490747</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.84900830186578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.18638555543887</v>
+        <v>13.13875770869057</v>
       </c>
       <c r="C25">
-        <v>8.320000631889659</v>
+        <v>8.741206542584498</v>
       </c>
       <c r="D25">
-        <v>7.124481650502366</v>
+        <v>7.330302450898032</v>
       </c>
       <c r="E25">
-        <v>10.0360128152868</v>
+        <v>10.1520350751496</v>
       </c>
       <c r="F25">
-        <v>24.44514622165471</v>
+        <v>23.60942552846293</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.456202627779793</v>
+        <v>2.376044013981529</v>
       </c>
       <c r="I25">
-        <v>3.19034522902389</v>
+        <v>3.036266412811741</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>15.94193057528881</v>
+        <v>15.12564851066129</v>
       </c>
       <c r="L25">
-        <v>6.45749984892828</v>
+        <v>12.2468468721681</v>
       </c>
       <c r="M25">
-        <v>12.06589695051094</v>
+        <v>10.09333580376832</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.46550503304492</v>
       </c>
       <c r="O25">
-        <v>11.99651702901213</v>
+        <v>12.20189559498219</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.5388994832282</v>
+        <v>12.12343843579157</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.84106561825362</v>
       </c>
     </row>
   </sheetData>
